--- a/Results/Case 7/fba_results_case7_test.xlsx
+++ b/Results/Case 7/fba_results_case7_test.xlsx
@@ -1271,7 +1271,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="GCV2_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="GCV2_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1352,7 +1352,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="GLY1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="GLY1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1433,7 +1433,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="GPD1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="GPD1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1514,7 +1514,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ICL1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ICL1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1595,7 +1595,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="IDP1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IDP1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1676,7 +1676,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="IDP2_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IDP2_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1757,7 +1757,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="LSC1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="LSC1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1838,7 +1838,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="MAE1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="MAE1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1919,7 +1919,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="MDH1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="MDH1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2000,7 +2000,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="MDH3_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="MDH3_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2081,7 +2081,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ADH3_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ADH3_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2162,7 +2162,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="OAC1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="OAC1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2243,7 +2243,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PCK1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="PCK1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2324,7 +2324,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PDA1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="PDA1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2405,7 +2405,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PGM1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="PGM1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2486,7 +2486,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PGM2_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="PGM2_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2567,7 +2567,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="RPE1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="RPE1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2648,7 +2648,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SDH1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SDH1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2729,7 +2729,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SER33_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SER33_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2810,7 +2810,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SFC1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SFC1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2891,7 +2891,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SOL3_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SOL3_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2972,7 +2972,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ALD5_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ALD5_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3053,7 +3053,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SOL4_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SOL4_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3134,7 +3134,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="TAL1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="TAL1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3215,7 +3215,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ZWF1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ZWF1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3296,7 +3296,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ALD6_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ALD6_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3377,7 +3377,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="COX5A_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="COX5A_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3458,7 +3458,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="CTP1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CTP1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3539,7 +3539,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="DAL7_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="DAL7_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3620,7 +3620,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="FUM1_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="FUM1_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3701,7 +3701,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="GND2_etOH.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="GND2_etOH_FBA.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4909,25 +4909,25 @@
         <v>-14.93827133</v>
       </c>
       <c r="AB5" s="2">
-        <v>-13.71384265399803</v>
+        <v>-13.72251998572886</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.22442867600197</v>
+        <v>1.215751344271144</v>
       </c>
       <c r="AD5" s="2">
-        <v>8.196588808391731</v>
+        <v>8.138500884165852</v>
       </c>
       <c r="AE5" s="2">
         <v>-27.55341866</v>
       </c>
       <c r="AF5" s="2">
-        <v>-26.97122212281078</v>
+        <v>-26.97759418556285</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.582196537189219</v>
+        <v>0.5758244744371446</v>
       </c>
       <c r="AH5" s="2">
-        <v>2.112973872220105</v>
+        <v>2.089847657536172</v>
       </c>
       <c r="AI5" s="2">
         <v>-27.51864533</v>
@@ -4969,13 +4969,13 @@
         <v>-27.14446029</v>
       </c>
       <c r="AV5" s="2">
-        <v>-25.63425538878019</v>
+        <v>-25.62561434297609</v>
       </c>
       <c r="AW5" s="2">
-        <v>1.510204901219812</v>
+        <v>1.518845947023916</v>
       </c>
       <c r="AX5" s="2">
-        <v>5.563584190237777</v>
+        <v>5.595417741952518</v>
       </c>
       <c r="AY5" s="2">
         <v>-26.09305813</v>
@@ -5005,25 +5005,25 @@
         <v>-31.06065037</v>
       </c>
       <c r="BH5" s="2">
-        <v>-30.49943613119515</v>
+        <v>-28.52927768786583</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.5612142388048476</v>
+        <v>2.531372682134172</v>
       </c>
       <c r="BJ5" s="2">
-        <v>1.806833508376559</v>
+        <v>8.149773594499825</v>
       </c>
       <c r="BK5" s="2">
         <v>-20.82975148</v>
       </c>
       <c r="BL5" s="2">
-        <v>-19.1959005896647</v>
+        <v>-18.3592042075867</v>
       </c>
       <c r="BM5" s="2">
-        <v>1.633850890335303</v>
+        <v>2.470547272413299</v>
       </c>
       <c r="BN5" s="2">
-        <v>7.843832855634739</v>
+        <v>11.86066609957124</v>
       </c>
       <c r="BO5" s="2">
         <v>-16.87885419</v>
@@ -5065,25 +5065,25 @@
         <v>-23.16295957</v>
       </c>
       <c r="CB5" s="2">
-        <v>-22.77665172106259</v>
+        <v>-21.73972622457345</v>
       </c>
       <c r="CC5" s="2">
-        <v>0.3863078489374097</v>
+        <v>1.423233345426549</v>
       </c>
       <c r="CD5" s="2">
-        <v>1.667782770893166</v>
+        <v>6.144436513500978</v>
       </c>
       <c r="CE5" s="2">
         <v>-13.40648379</v>
       </c>
       <c r="CF5" s="2">
-        <v>-10.16116383309315</v>
+        <v>-10.14465260872262</v>
       </c>
       <c r="CG5" s="2">
-        <v>3.245319956906851</v>
+        <v>3.26183118127738</v>
       </c>
       <c r="CH5" s="2">
-        <v>24.20709268546284</v>
+        <v>24.33025118570169</v>
       </c>
       <c r="CI5" s="2">
         <v>-24.43659766</v>
@@ -5289,25 +5289,25 @@
         <v>12.84216975</v>
       </c>
       <c r="AB6" s="2">
-        <v>0.5724032479193253</v>
+        <v>0.5716986722253814</v>
       </c>
       <c r="AC6" s="2">
-        <v>12.26976650208067</v>
+        <v>12.27047107777462</v>
       </c>
       <c r="AD6" s="2">
-        <v>95.54278397605415</v>
+        <v>95.54827039857979</v>
       </c>
       <c r="AE6" s="2">
         <v>24.21818063</v>
       </c>
       <c r="AF6" s="2">
-        <v>1.559356264966055</v>
+        <v>1.551583367970254</v>
       </c>
       <c r="AG6" s="2">
-        <v>22.65882436503394</v>
+        <v>22.66659726202975</v>
       </c>
       <c r="AH6" s="2">
-        <v>93.56121630774187</v>
+        <v>93.5933116047196</v>
       </c>
       <c r="AI6" s="2">
         <v>24.2146548</v>
@@ -5349,13 +5349,13 @@
         <v>24.46044733</v>
       </c>
       <c r="AV6" s="2">
-        <v>0.8324434409336564</v>
+        <v>0.8331494660946784</v>
       </c>
       <c r="AW6" s="2">
-        <v>23.62800388906635</v>
+        <v>23.62729786390532</v>
       </c>
       <c r="AX6" s="2">
-        <v>96.59677752535339</v>
+        <v>96.59389113022129</v>
       </c>
       <c r="AY6" s="2">
         <v>22.13040994</v>
@@ -5385,25 +5385,25 @@
         <v>27.13509385</v>
       </c>
       <c r="BH6" s="2">
-        <v>0.8264273110402345</v>
+        <v>0.9874010477577529</v>
       </c>
       <c r="BI6" s="2">
-        <v>26.30866653895977</v>
+        <v>26.14769280224225</v>
       </c>
       <c r="BJ6" s="2">
-        <v>96.95439670999983</v>
+        <v>96.36116590119053</v>
       </c>
       <c r="BK6" s="2">
         <v>16.87636761</v>
       </c>
       <c r="BL6" s="2">
-        <v>0.7404241701838445</v>
+        <v>0.806857971685528</v>
       </c>
       <c r="BM6" s="2">
-        <v>16.13594343981616</v>
+        <v>16.06950963831447</v>
       </c>
       <c r="BN6" s="2">
-        <v>95.6126567796194</v>
+        <v>95.21900689572898</v>
       </c>
       <c r="BO6" s="2">
         <v>14.44997016</v>
@@ -5445,13 +5445,13 @@
         <v>20.49176794</v>
       </c>
       <c r="CB6" s="2">
-        <v>0.6371429597666123</v>
+        <v>0.7218659790916013</v>
       </c>
       <c r="CC6" s="2">
-        <v>19.85462498023339</v>
+        <v>19.7699019609084</v>
       </c>
       <c r="CD6" s="2">
-        <v>96.89073699432781</v>
+        <v>96.47728794701742</v>
       </c>
       <c r="CE6" s="2">
         <v>11.08181926</v>
@@ -6019,25 +6019,25 @@
         <v>0.609166852</v>
       </c>
       <c r="AB8" s="2">
-        <v>0.2500413733461238</v>
+        <v>0.2497335954381882</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.3591254786538762</v>
+        <v>0.3594332565618118</v>
       </c>
       <c r="AD8" s="2">
-        <v>58.95354901121183</v>
+        <v>59.00407341301162</v>
       </c>
       <c r="AE8" s="2">
         <v>0.7115849279999999</v>
       </c>
       <c r="AF8" s="2">
-        <v>0.3744984548968462</v>
+        <v>0.3739555048441694</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.3370864731031538</v>
+        <v>0.3376294231558306</v>
       </c>
       <c r="AH8" s="2">
-        <v>47.37122159832393</v>
+        <v>47.44752310940326</v>
       </c>
       <c r="AI8" s="2">
         <v>1.484156135</v>
@@ -6079,13 +6079,13 @@
         <v>0.517056726</v>
       </c>
       <c r="AV8" s="2">
-        <v>0.3636378936660873</v>
+        <v>0.3639463080157054</v>
       </c>
       <c r="AW8" s="2">
-        <v>0.1534188323339126</v>
+        <v>0.1531104179842946</v>
       </c>
       <c r="AX8" s="2">
-        <v>29.67156689378655</v>
+        <v>29.61191882538138</v>
       </c>
       <c r="AY8" s="2">
         <v>0.854877875</v>
@@ -6115,25 +6115,25 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="BH8" s="2">
-        <v>0.361009855898126</v>
+        <v>0.4313283276129787</v>
       </c>
       <c r="BI8" s="2">
-        <v>0.4198282061018741</v>
+        <v>0.3495097343870214</v>
       </c>
       <c r="BJ8" s="2">
-        <v>53.76636034193144</v>
+        <v>44.76084752987123</v>
       </c>
       <c r="BK8" s="2">
         <v>1.239645202</v>
       </c>
       <c r="BL8" s="2">
-        <v>0.3925554173000242</v>
+        <v>0.4277770506846355</v>
       </c>
       <c r="BM8" s="2">
-        <v>0.8470897846999756</v>
+        <v>0.8118681513153645</v>
       </c>
       <c r="BN8" s="2">
-        <v>68.33324432937027</v>
+        <v>65.49197705968812</v>
       </c>
       <c r="BO8" s="2">
         <v>0.615675353</v>
@@ -6175,25 +6175,25 @@
         <v>0.709791332</v>
       </c>
       <c r="CB8" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="CC8" s="2">
-        <v>0.4314669288503419</v>
+        <v>0.3944572068951591</v>
       </c>
       <c r="CD8" s="2">
-        <v>60.78785544401969</v>
+        <v>55.57368611190071</v>
       </c>
       <c r="CE8" s="2">
         <v>2.122313264</v>
       </c>
       <c r="CF8" s="2">
-        <v>0.2839626471451855</v>
+        <v>0.2845507644675455</v>
       </c>
       <c r="CG8" s="2">
-        <v>1.838350616854815</v>
+        <v>1.837762499532455</v>
       </c>
       <c r="CH8" s="2">
-        <v>86.62013511568077</v>
+        <v>86.59242396990713</v>
       </c>
       <c r="CI8" s="2">
         <v>1.460589758</v>
@@ -6399,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.33812337558406</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.33812337558406</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>188</v>
@@ -6411,13 +6411,13 @@
         <v>0.066805982</v>
       </c>
       <c r="AF9" s="2">
-        <v>1.208468260328756</v>
+        <v>1.201204082816602</v>
       </c>
       <c r="AG9" s="2">
-        <v>1.141662278328756</v>
+        <v>1.134398100816602</v>
       </c>
       <c r="AH9" s="2">
-        <v>1708.92223143843</v>
+        <v>1698.048687940253</v>
       </c>
       <c r="AI9" s="2">
         <v>0.30978024</v>
@@ -6459,13 +6459,13 @@
         <v>0.06310534800000001</v>
       </c>
       <c r="AV9" s="2">
-        <v>5.620062980946134</v>
+        <v>5.633831744120947</v>
       </c>
       <c r="AW9" s="2">
-        <v>5.556957632946134</v>
+        <v>5.570726396120947</v>
       </c>
       <c r="AX9" s="2">
-        <v>8805.842625170428</v>
+        <v>8827.661319799625</v>
       </c>
       <c r="AY9" s="2">
         <v>0.047136123</v>
@@ -6495,25 +6495,25 @@
         <v>0.002913575</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.488177509648173</v>
+        <v>0.5832660393466949</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.485263934648173</v>
+        <v>0.5803524643466949</v>
       </c>
       <c r="BJ9" s="2">
-        <v>16655.27520822952</v>
+        <v>19918.91282519568</v>
       </c>
       <c r="BK9" s="2">
         <v>0.469873398</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.4373747365980585</v>
+        <v>0.476617737573826</v>
       </c>
       <c r="BM9" s="2">
-        <v>0.03249866140194152</v>
+        <v>0.00674433957382603</v>
       </c>
       <c r="BN9" s="2">
-        <v>6.916471870991411</v>
+        <v>1.435352501872436</v>
       </c>
       <c r="BO9" s="2">
         <v>0</v>
@@ -6552,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="CB9" s="2">
-        <v>0.3763656636628119</v>
+        <v>0.426412258240969</v>
       </c>
       <c r="CC9" s="2">
-        <v>0.3763656636628119</v>
+        <v>0.426412258240969</v>
       </c>
       <c r="CD9" s="2" t="s">
         <v>188</v>
@@ -6564,13 +6564,13 @@
         <v>0.462652892</v>
       </c>
       <c r="CF9" s="2">
-        <v>0.3839900092798524</v>
+        <v>0.3847852940764306</v>
       </c>
       <c r="CG9" s="2">
-        <v>0.07866288272014754</v>
+        <v>0.07786759792356934</v>
       </c>
       <c r="CH9" s="2">
-        <v>17.00257019470821</v>
+        <v>16.83067355030591</v>
       </c>
       <c r="CI9" s="2">
         <v>0.341371561</v>
@@ -6776,25 +6776,25 @@
         <v>-0.609166852</v>
       </c>
       <c r="AB10" s="2">
-        <v>-0.33812337558406</v>
+        <v>-0.3377071768415533</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.27104347641594</v>
+        <v>0.2714596751584467</v>
       </c>
       <c r="AD10" s="2">
-        <v>44.49412759838415</v>
+        <v>44.56245021658642</v>
       </c>
       <c r="AE10" s="2">
         <v>-0.7115849279999999</v>
       </c>
       <c r="AF10" s="2">
-        <v>-1.208468260328756</v>
+        <v>-1.201204082816602</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.496883332328756</v>
+        <v>0.4896191548166018</v>
       </c>
       <c r="AH10" s="2">
-        <v>69.82769206836771</v>
+        <v>68.80684729969461</v>
       </c>
       <c r="AI10" s="2">
         <v>-1.484156135</v>
@@ -6836,13 +6836,13 @@
         <v>-0.517056726</v>
       </c>
       <c r="AV10" s="2">
-        <v>-0.4917312877843214</v>
+        <v>-0.4921483427391278</v>
       </c>
       <c r="AW10" s="2">
-        <v>0.02532543821567856</v>
+        <v>0.02490838326087214</v>
       </c>
       <c r="AX10" s="2">
-        <v>4.897999956716271</v>
+        <v>4.817340536997896</v>
       </c>
       <c r="AY10" s="2">
         <v>-0.854877875</v>
@@ -6872,25 +6872,25 @@
         <v>-0.7808380620000001</v>
       </c>
       <c r="BH10" s="2">
-        <v>-0.488177509648173</v>
+        <v>-0.5832660393466949</v>
       </c>
       <c r="BI10" s="2">
-        <v>0.292660552351827</v>
+        <v>0.1975720226533052</v>
       </c>
       <c r="BJ10" s="2">
-        <v>37.48031334464162</v>
+        <v>25.30256044989072</v>
       </c>
       <c r="BK10" s="2">
         <v>-1.239645202</v>
       </c>
       <c r="BL10" s="2">
-        <v>-0.4373747365980585</v>
+        <v>-0.476617737573826</v>
       </c>
       <c r="BM10" s="2">
-        <v>0.8022704654019415</v>
+        <v>0.7630274644261739</v>
       </c>
       <c r="BN10" s="2">
-        <v>64.71774860319603</v>
+        <v>61.55208467673914</v>
       </c>
       <c r="BO10" s="2">
         <v>-0.615675353</v>
@@ -6932,25 +6932,25 @@
         <v>-0.709791332</v>
       </c>
       <c r="CB10" s="2">
-        <v>-0.3763656636628119</v>
+        <v>-0.426412258240969</v>
       </c>
       <c r="CC10" s="2">
-        <v>0.3334256683371881</v>
+        <v>0.283379073759031</v>
       </c>
       <c r="CD10" s="2">
-        <v>46.97516767324908</v>
+        <v>39.92427928931527</v>
       </c>
       <c r="CE10" s="2">
         <v>-2.122313264</v>
       </c>
       <c r="CF10" s="2">
-        <v>-0.3839900092798524</v>
+        <v>-0.3847852940764306</v>
       </c>
       <c r="CG10" s="2">
-        <v>1.738323254720148</v>
+        <v>1.73752796992357</v>
       </c>
       <c r="CH10" s="2">
-        <v>81.90700610539781</v>
+        <v>81.86953356022418</v>
       </c>
       <c r="CI10" s="2">
         <v>-1.460589758</v>
@@ -7168,13 +7168,13 @@
         <v>-0.370469536</v>
       </c>
       <c r="AF11" s="2">
-        <v>-0.7020467439172684</v>
+        <v>-0.6955167792848123</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.3315772079172684</v>
+        <v>0.3250472432848123</v>
       </c>
       <c r="AH11" s="2">
-        <v>89.50188225929281</v>
+        <v>87.73926374470162</v>
       </c>
       <c r="AI11" s="2">
         <v>-1.112619062</v>
@@ -7464,19 +7464,19 @@
         <v>0.213537676</v>
       </c>
       <c r="D12" s="2">
-        <v>2.75837995734094</v>
+        <v>-2.75837995734094</v>
       </c>
       <c r="E12" s="2">
-        <v>2.54484228134094</v>
+        <v>2.971917633340941</v>
       </c>
       <c r="F12" s="2">
-        <v>1191.753291040285</v>
+        <v>1391.753291040285</v>
       </c>
       <c r="G12" s="2">
         <v>1.055725766</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" s="2">
         <v>1.055725766</v>
@@ -7488,7 +7488,7 @@
         <v>0.052519502</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M12" s="2">
         <v>0.052519502</v>
@@ -7500,19 +7500,19 @@
         <v>0.268459168</v>
       </c>
       <c r="P12" s="2">
-        <v>2.530564255046549</v>
+        <v>-2.530564255046549</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.262105087046549</v>
+        <v>2.799023423046549</v>
       </c>
       <c r="R12" s="2">
-        <v>842.6253809467772</v>
+        <v>1042.625380946777</v>
       </c>
       <c r="S12" s="2">
         <v>0.07662161100000001</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" s="2">
         <v>0.07662161100000001</v>
@@ -7524,19 +7524,19 @@
         <v>0.101978606</v>
       </c>
       <c r="X12" s="2">
-        <v>2.465027467829429</v>
+        <v>-2.465027467829429</v>
       </c>
       <c r="Y12" s="2">
-        <v>2.36304886182943</v>
+        <v>2.567006073829429</v>
       </c>
       <c r="Z12" s="2">
-        <v>2317.200591886331</v>
+        <v>2517.200591886331</v>
       </c>
       <c r="AA12" s="2">
         <v>0.101358877</v>
       </c>
       <c r="AB12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" s="2">
         <v>0.101358877</v>
@@ -7548,7 +7548,7 @@
         <v>0.107294456</v>
       </c>
       <c r="AF12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG12" s="2">
         <v>0.107294456</v>
@@ -7560,7 +7560,7 @@
         <v>1.112619062</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" s="2">
         <v>1.112619062</v>
@@ -7572,19 +7572,19 @@
         <v>0.138518121</v>
       </c>
       <c r="AN12" s="2">
-        <v>2.293601894216779</v>
+        <v>-2.293601894216779</v>
       </c>
       <c r="AO12" s="2">
-        <v>2.155083773216779</v>
+        <v>2.432120015216779</v>
       </c>
       <c r="AP12" s="2">
-        <v>1555.813605944582</v>
+        <v>1755.813605944582</v>
       </c>
       <c r="AQ12" s="2">
         <v>0.009015943</v>
       </c>
       <c r="AR12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" s="2">
         <v>0.009015943</v>
@@ -7596,7 +7596,7 @@
         <v>0.125192869</v>
       </c>
       <c r="AV12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" s="2">
         <v>0.125192869</v>
@@ -7608,31 +7608,31 @@
         <v>0.047136123</v>
       </c>
       <c r="AZ12" s="2">
-        <v>3.103136313322853</v>
+        <v>-3.103136313322853</v>
       </c>
       <c r="BA12" s="2">
-        <v>3.056000190322853</v>
+        <v>3.150272436322853</v>
       </c>
       <c r="BB12" s="2">
-        <v>6483.350763326149</v>
+        <v>6683.350763326149</v>
       </c>
       <c r="BC12" s="2">
         <v>0.033061682</v>
       </c>
       <c r="BD12" s="2">
-        <v>2.599054493358246</v>
+        <v>-2.599054493358246</v>
       </c>
       <c r="BE12" s="2">
-        <v>2.565992811358246</v>
+        <v>2.632116175358246</v>
       </c>
       <c r="BF12" s="2">
-        <v>7761.228879275548</v>
+        <v>7961.228879275548</v>
       </c>
       <c r="BG12" s="2">
         <v>0.002913575</v>
       </c>
       <c r="BH12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI12" s="2">
         <v>0.002913575</v>
@@ -7644,7 +7644,7 @@
         <v>0.469873398</v>
       </c>
       <c r="BL12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" s="2">
         <v>0.469873398</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BQ12" s="2">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>0.343324251</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" s="2">
         <v>0.343324251</v>
@@ -7677,7 +7677,7 @@
         <v>0.058178487</v>
       </c>
       <c r="BX12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY12" s="2">
         <v>0.058178487</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="CB12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC12" s="2">
         <v>0</v>
@@ -7698,31 +7698,31 @@
         <v>0.769504809</v>
       </c>
       <c r="CF12" s="2">
-        <v>10.67468060158711</v>
+        <v>-10.71446247373399</v>
       </c>
       <c r="CG12" s="2">
-        <v>9.905175792587105</v>
+        <v>11.48396728273399</v>
       </c>
       <c r="CH12" s="2">
-        <v>1287.214280760538</v>
+        <v>1492.384082389015</v>
       </c>
       <c r="CI12" s="2">
         <v>0.680740943</v>
       </c>
       <c r="CJ12" s="2">
-        <v>3.501225455267292</v>
+        <v>-3.501225455267292</v>
       </c>
       <c r="CK12" s="2">
-        <v>2.820484512267292</v>
+        <v>4.181966398267292</v>
       </c>
       <c r="CL12" s="2">
-        <v>414.3256757611084</v>
+        <v>614.3256757611085</v>
       </c>
       <c r="CM12" s="2">
         <v>0.9201430350000001</v>
       </c>
       <c r="CN12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" s="2">
         <v>0.9201430350000001</v>
@@ -7734,7 +7734,7 @@
         <v>0.941713699</v>
       </c>
       <c r="CR12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS12" s="2">
         <v>0.941713699</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="CV12" s="2">
-        <v>2.150924689481362</v>
+        <v>-2.150924689481362</v>
       </c>
       <c r="CW12" s="2">
         <v>2.150924689481362</v>
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" s="2">
-        <v>2.385274295223184</v>
+        <v>-2.385274295223184</v>
       </c>
       <c r="DA12" s="2">
         <v>2.385274295223184</v>
@@ -7770,7 +7770,7 @@
         <v>0.222241192</v>
       </c>
       <c r="DD12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" s="2">
         <v>0.222241192</v>
@@ -7782,19 +7782,19 @@
         <v>1.111853633</v>
       </c>
       <c r="DH12" s="2">
-        <v>2.962672800934036</v>
+        <v>-2.962672800934036</v>
       </c>
       <c r="DI12" s="2">
-        <v>1.850819167934036</v>
+        <v>4.074526433934036</v>
       </c>
       <c r="DJ12" s="2">
-        <v>166.4624832803002</v>
+        <v>366.4624832803003</v>
       </c>
       <c r="DK12" s="2">
         <v>0.046826242</v>
       </c>
       <c r="DL12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM12" s="2">
         <v>0.046826242</v>
@@ -7806,7 +7806,7 @@
         <v>0.229507055</v>
       </c>
       <c r="DP12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" s="2">
         <v>0.229507055</v>
@@ -7818,7 +7818,7 @@
         <v>3.521541776</v>
       </c>
       <c r="DT12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" s="2">
         <v>3.521541776</v>
@@ -7910,25 +7910,25 @@
         <v>15.06091557</v>
       </c>
       <c r="AB13" s="2">
-        <v>13.88927651376808</v>
+        <v>13.89773790257068</v>
       </c>
       <c r="AC13" s="2">
-        <v>1.171639056231916</v>
+        <v>1.163177667429325</v>
       </c>
       <c r="AD13" s="2">
-        <v>7.779334867036345</v>
+        <v>7.723153761955026</v>
       </c>
       <c r="AE13" s="2">
         <v>27.11310651</v>
       </c>
       <c r="AF13" s="2">
-        <v>27.23397468617415</v>
+        <v>27.23996580872139</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.1208681761741524</v>
+        <v>0.1268592987213886</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.4457924293166963</v>
+        <v>0.467889205814906</v>
       </c>
       <c r="AI13" s="2">
         <v>27.73379817</v>
@@ -7970,13 +7970,13 @@
         <v>27.12512156</v>
       </c>
       <c r="AV13" s="2">
-        <v>25.88938805340798</v>
+        <v>25.88096339477418</v>
       </c>
       <c r="AW13" s="2">
-        <v>1.23573350659202</v>
+        <v>1.244158165225816</v>
       </c>
       <c r="AX13" s="2">
-        <v>4.555679147312251</v>
+        <v>4.586737657465509</v>
       </c>
       <c r="AY13" s="2">
         <v>25.6656192</v>
@@ -8006,25 +8006,25 @@
         <v>30.42160629</v>
       </c>
       <c r="BH13" s="2">
-        <v>30.75272493331532</v>
+        <v>28.83190276481779</v>
       </c>
       <c r="BI13" s="2">
-        <v>0.331118643315321</v>
+        <v>1.589703525182205</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1.088432478413095</v>
+        <v>5.22557392278383</v>
       </c>
       <c r="BK13" s="2">
         <v>20.73011097</v>
       </c>
       <c r="BL13" s="2">
-        <v>19.56105955408806</v>
+        <v>18.75712668667631</v>
       </c>
       <c r="BM13" s="2">
-        <v>1.169051415911937</v>
+        <v>1.97298428332369</v>
       </c>
       <c r="BN13" s="2">
-        <v>5.639388122927822</v>
+        <v>9.517480568140394</v>
       </c>
       <c r="BO13" s="2">
         <v>17.04495723</v>
@@ -8066,25 +8066,25 @@
         <v>23.33605442</v>
       </c>
       <c r="CB13" s="2">
-        <v>22.971927427592</v>
+        <v>21.96096839154065</v>
       </c>
       <c r="CC13" s="2">
-        <v>0.3641269924079999</v>
+        <v>1.375086028459354</v>
       </c>
       <c r="CD13" s="2">
-        <v>1.560362286847975</v>
+        <v>5.892538660180899</v>
       </c>
       <c r="CE13" s="2">
         <v>13.49958437</v>
       </c>
       <c r="CF13" s="2">
-        <v>10.36039539856756</v>
+        <v>10.34429680429466</v>
       </c>
       <c r="CG13" s="2">
-        <v>3.139188971432443</v>
+        <v>3.155287565705336</v>
       </c>
       <c r="CH13" s="2">
-        <v>23.25396756961372</v>
+        <v>23.37322008755545</v>
       </c>
       <c r="CI13" s="2">
         <v>24.62280033</v>
@@ -8290,25 +8290,25 @@
         <v>-8.323591</v>
       </c>
       <c r="AB14" s="2">
-        <v>-7.654180160304794</v>
+        <v>-7.655328774382537</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.6694108396952068</v>
+        <v>0.6682622256174637</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.042332206077962</v>
+        <v>8.028532704423652</v>
       </c>
       <c r="AE14" s="2">
         <v>-14.31166329</v>
       </c>
       <c r="AF14" s="2">
-        <v>-13.62053300225674</v>
+        <v>-13.62306407858355</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.6911302877432632</v>
+        <v>0.688599211416447</v>
       </c>
       <c r="AH14" s="2">
-        <v>4.829140217588666</v>
+        <v>4.811454807615495</v>
       </c>
       <c r="AI14" s="2">
         <v>-14.90132603</v>
@@ -8350,13 +8350,13 @@
         <v>-14.40735818</v>
       </c>
       <c r="AV14" s="2">
-        <v>-13.4456592844923</v>
+        <v>-13.44449747938673</v>
       </c>
       <c r="AW14" s="2">
-        <v>0.9616988955077019</v>
+        <v>0.9628607006132661</v>
       </c>
       <c r="AX14" s="2">
-        <v>6.67505370167525</v>
+        <v>6.683117672120415</v>
       </c>
       <c r="AY14" s="2">
         <v>-13.55913441</v>
@@ -8386,25 +8386,25 @@
         <v>-16.34127019</v>
       </c>
       <c r="BH14" s="2">
-        <v>-15.43724931391282</v>
+        <v>-15.17235774984704</v>
       </c>
       <c r="BI14" s="2">
-        <v>0.9040208760871753</v>
+        <v>1.16891244015296</v>
       </c>
       <c r="BJ14" s="2">
-        <v>5.532133460717079</v>
+        <v>7.153130855570048</v>
       </c>
       <c r="BK14" s="2">
         <v>-11.15387621</v>
       </c>
       <c r="BL14" s="2">
-        <v>-10.51909658897819</v>
+        <v>-10.40454795569129</v>
       </c>
       <c r="BM14" s="2">
-        <v>0.6347796210218117</v>
+        <v>0.749328254308713</v>
       </c>
       <c r="BN14" s="2">
-        <v>5.691112300965834</v>
+        <v>6.718097280270182</v>
       </c>
       <c r="BO14" s="2">
         <v>-9.12174259</v>
@@ -8446,25 +8446,25 @@
         <v>-12.4105939</v>
       </c>
       <c r="CB14" s="2">
-        <v>-11.59661495030968</v>
+        <v>-11.45719833764348</v>
       </c>
       <c r="CC14" s="2">
-        <v>0.8139789496903198</v>
+        <v>0.9533955623565245</v>
       </c>
       <c r="CD14" s="2">
-        <v>6.558742927607354</v>
+        <v>7.682110703473461</v>
       </c>
       <c r="CE14" s="2">
         <v>-7.543047144</v>
       </c>
       <c r="CF14" s="2">
-        <v>-6.513224530244146</v>
+        <v>-6.510145257610891</v>
       </c>
       <c r="CG14" s="2">
-        <v>1.029822613755853</v>
+        <v>1.032901886389109</v>
       </c>
       <c r="CH14" s="2">
-        <v>13.65260741575783</v>
+        <v>13.69343007766714</v>
       </c>
       <c r="CI14" s="2">
         <v>-13.55575456</v>
@@ -8670,25 +8670,25 @@
         <v>15.06091557</v>
       </c>
       <c r="AB15" s="2">
-        <v>15.36511241530683</v>
+        <v>15.36797084387973</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.3041968453068318</v>
+        <v>0.3070552738797279</v>
       </c>
       <c r="AD15" s="2">
-        <v>2.019776579272277</v>
+        <v>2.038755694848689</v>
       </c>
       <c r="AE15" s="2">
         <v>27.11310651</v>
       </c>
       <c r="AF15" s="2">
-        <v>27.54008450068485</v>
+        <v>27.54563182343072</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.4269779906848505</v>
+        <v>0.4325253134307196</v>
       </c>
       <c r="AH15" s="2">
-        <v>1.5748029113793</v>
+        <v>1.595262841870198</v>
       </c>
       <c r="AI15" s="2">
         <v>27.73379817</v>
@@ -8730,13 +8730,13 @@
         <v>27.12512156</v>
       </c>
       <c r="AV15" s="2">
-        <v>27.1255443785423</v>
+        <v>27.12266924147726</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.0004228185423009734</v>
+        <v>0.00245231852273875</v>
       </c>
       <c r="AX15" s="2">
-        <v>0.001558771050539666</v>
+        <v>0.009040765097823767</v>
       </c>
       <c r="AY15" s="2">
         <v>25.6656192</v>
@@ -8766,25 +8766,25 @@
         <v>30.42160629</v>
       </c>
       <c r="BH15" s="2">
-        <v>31.23173392677231</v>
+        <v>30.57620267594916</v>
       </c>
       <c r="BI15" s="2">
-        <v>0.8101276367723109</v>
+        <v>0.1545963859491586</v>
       </c>
       <c r="BJ15" s="2">
-        <v>2.663000858829111</v>
+        <v>0.5081795631546797</v>
       </c>
       <c r="BK15" s="2">
         <v>20.73011097</v>
       </c>
       <c r="BL15" s="2">
-        <v>21.15317306408234</v>
+        <v>20.87120635064348</v>
       </c>
       <c r="BM15" s="2">
-        <v>0.4230620940823435</v>
+        <v>0.1410953806434847</v>
       </c>
       <c r="BN15" s="2">
-        <v>2.040809596700116</v>
+        <v>0.6806301271019425</v>
       </c>
       <c r="BO15" s="2">
         <v>17.04495723</v>
@@ -8826,25 +8826,25 @@
         <v>23.33605442</v>
       </c>
       <c r="CB15" s="2">
-        <v>23.45044144835737</v>
+        <v>23.10542500055569</v>
       </c>
       <c r="CC15" s="2">
-        <v>0.1143870283573669</v>
+        <v>0.2306294194443055</v>
       </c>
       <c r="CD15" s="2">
-        <v>0.4901729585414933</v>
+        <v>0.9882965444520312</v>
       </c>
       <c r="CE15" s="2">
         <v>13.49958437</v>
       </c>
       <c r="CF15" s="2">
-        <v>12.93572893305046</v>
+        <v>12.92938249659837</v>
       </c>
       <c r="CG15" s="2">
-        <v>0.5638554369495452</v>
+        <v>0.5702018734016328</v>
       </c>
       <c r="CH15" s="2">
-        <v>4.17683553430427</v>
+        <v>4.223847622070402</v>
       </c>
       <c r="CI15" s="2">
         <v>24.62280033</v>
@@ -9050,25 +9050,25 @@
         <v>8.323591</v>
       </c>
       <c r="AB16" s="2">
-        <v>7.525237928085939</v>
+        <v>7.525914201158632</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.798353071914061</v>
+        <v>0.7976767988413682</v>
       </c>
       <c r="AD16" s="2">
-        <v>9.59145003537609</v>
+        <v>9.583325259991367</v>
       </c>
       <c r="AE16" s="2">
         <v>14.31166329</v>
       </c>
       <c r="AF16" s="2">
-        <v>13.62510204342835</v>
+        <v>13.62762649553252</v>
       </c>
       <c r="AG16" s="2">
-        <v>0.6865612465716531</v>
+        <v>0.6840367944674792</v>
       </c>
       <c r="AH16" s="2">
-        <v>4.797214919466241</v>
+        <v>4.779575794977212</v>
       </c>
       <c r="AI16" s="2">
         <v>14.90132603</v>
@@ -9110,13 +9110,13 @@
         <v>14.40735818</v>
       </c>
       <c r="AV16" s="2">
-        <v>13.10644768615998</v>
+        <v>13.10574836569263</v>
       </c>
       <c r="AW16" s="2">
-        <v>1.300910493840021</v>
+        <v>1.301609814307373</v>
       </c>
       <c r="AX16" s="2">
-        <v>9.029486721902416</v>
+        <v>9.034340633761996</v>
       </c>
       <c r="AY16" s="2">
         <v>13.55913441</v>
@@ -9146,13 +9146,13 @@
         <v>16.34127019</v>
       </c>
       <c r="BH16" s="2">
-        <v>14.97578696619859</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <v>1.365483223801411</v>
+        <v>16.34127019</v>
       </c>
       <c r="BJ16" s="2">
-        <v>8.356040919248828</v>
+        <v>100</v>
       </c>
       <c r="BK16" s="2">
         <v>11.15387621</v>
@@ -9206,25 +9206,25 @@
         <v>12.4105939</v>
       </c>
       <c r="CB16" s="2">
-        <v>11.60001062695514</v>
+        <v>11.46104554871092</v>
       </c>
       <c r="CC16" s="2">
-        <v>0.8105832730448572</v>
+        <v>0.949548351289085</v>
       </c>
       <c r="CD16" s="2">
-        <v>6.531381814409842</v>
+        <v>7.651111292015485</v>
       </c>
       <c r="CE16" s="2">
         <v>7.543047144</v>
       </c>
       <c r="CF16" s="2">
-        <v>6.516688995875557</v>
+        <v>6.513616898524934</v>
       </c>
       <c r="CG16" s="2">
-        <v>1.026358148124443</v>
+        <v>1.029430245475066</v>
       </c>
       <c r="CH16" s="2">
-        <v>13.60667815712705</v>
+        <v>13.64740569457941</v>
       </c>
       <c r="CI16" s="2">
         <v>13.55575456</v>
@@ -9442,13 +9442,13 @@
         <v>-0.211552276</v>
       </c>
       <c r="AF17" s="2">
-        <v>-0.186695488599205</v>
+        <v>-0.1864248163867944</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.02485678740079503</v>
+        <v>0.02512745961320564</v>
       </c>
       <c r="AH17" s="2">
-        <v>11.74971400487085</v>
+        <v>11.87765978618242</v>
       </c>
       <c r="AI17" s="2">
         <v>-0.20818029</v>
@@ -9490,13 +9490,13 @@
         <v>-0.212726094</v>
       </c>
       <c r="AV17" s="2">
-        <v>-0.1812812665672663</v>
+        <v>-0.1814350177162689</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.03144482743273372</v>
+        <v>0.0312910762837311</v>
       </c>
       <c r="AX17" s="2">
-        <v>14.78183839201867</v>
+        <v>14.7095618103772</v>
       </c>
       <c r="AY17" s="2">
         <v>-0.223896586</v>
@@ -9526,25 +9526,25 @@
         <v>-0.202979048</v>
       </c>
       <c r="BH17" s="2">
-        <v>-0.1799711335382903</v>
+        <v>-0.2150263954831977</v>
       </c>
       <c r="BI17" s="2">
-        <v>0.02300791446170969</v>
+        <v>0.01204734748319769</v>
       </c>
       <c r="BJ17" s="2">
-        <v>11.33511792887593</v>
+        <v>5.935266522285438</v>
       </c>
       <c r="BK17" s="2">
         <v>-0.204165364</v>
       </c>
       <c r="BL17" s="2">
-        <v>-0.1612422235167127</v>
+        <v>-0.1757095171332917</v>
       </c>
       <c r="BM17" s="2">
-        <v>0.04292314048328724</v>
+        <v>0.0284558468667083</v>
       </c>
       <c r="BN17" s="2">
-        <v>21.02371315209334</v>
+        <v>13.93764657687398</v>
       </c>
       <c r="BO17" s="2">
         <v>-0.207877462</v>
@@ -9586,25 +9586,25 @@
         <v>-0.214064053</v>
       </c>
       <c r="CB17" s="2">
-        <v>-0.1387506670739599</v>
+        <v>-0.157200804939825</v>
       </c>
       <c r="CC17" s="2">
-        <v>0.07531338592604012</v>
+        <v>0.05686324806017504</v>
       </c>
       <c r="CD17" s="2">
-        <v>35.18264036888067</v>
+        <v>26.56366039195522</v>
       </c>
       <c r="CE17" s="2">
         <v>-0.198551241</v>
       </c>
       <c r="CF17" s="2">
-        <v>-0.1415614522825492</v>
+        <v>-0.1418546413448968</v>
       </c>
       <c r="CG17" s="2">
-        <v>0.05698978871745075</v>
+        <v>0.05669659965510321</v>
       </c>
       <c r="CH17" s="2">
-        <v>28.70281164218498</v>
+        <v>28.55514746196082</v>
       </c>
       <c r="CI17" s="2">
         <v>-0.209227731</v>
@@ -9810,13 +9810,13 @@
         <v>0.609166852</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.3381233755840601</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.2710434764159398</v>
+        <v>0.2714596751584467</v>
       </c>
       <c r="AD18" s="2">
-        <v>44.49412759838414</v>
+        <v>44.56245021658643</v>
       </c>
       <c r="AE18" s="2">
         <v>0.7115849279999999</v>
@@ -9906,13 +9906,13 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="BH18" s="2">
-        <v>0.488177509648173</v>
+        <v>0.5832660393466947</v>
       </c>
       <c r="BI18" s="2">
-        <v>0.2926605523518271</v>
+        <v>0.1975720226533053</v>
       </c>
       <c r="BJ18" s="2">
-        <v>37.48031334464162</v>
+        <v>25.30256044989074</v>
       </c>
       <c r="BK18" s="2">
         <v>1.239645202</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="CB18" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="CC18" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="CD18" s="2" t="s">
         <v>188</v>
@@ -9978,10 +9978,10 @@
         <v>0</v>
       </c>
       <c r="CF18" s="2">
-        <v>0.3839900092798525</v>
+        <v>0.3847852940764307</v>
       </c>
       <c r="CG18" s="2">
-        <v>0.3839900092798525</v>
+        <v>0.3847852940764307</v>
       </c>
       <c r="CH18" s="2" t="s">
         <v>188</v>
@@ -10184,25 +10184,25 @@
         <v>-15.06091557</v>
       </c>
       <c r="AB19" s="2">
-        <v>-15.36511241530683</v>
+        <v>-15.36797084387973</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.3041968453068318</v>
+        <v>0.3070552738797279</v>
       </c>
       <c r="AD19" s="2">
-        <v>2.019776579272277</v>
+        <v>2.038755694848689</v>
       </c>
       <c r="AE19" s="2">
         <v>-27.11310651</v>
       </c>
       <c r="AF19" s="2">
-        <v>-27.54008450068485</v>
+        <v>-27.54563182343072</v>
       </c>
       <c r="AG19" s="2">
-        <v>0.4269779906848505</v>
+        <v>0.4325253134307196</v>
       </c>
       <c r="AH19" s="2">
-        <v>1.5748029113793</v>
+        <v>1.595262841870198</v>
       </c>
       <c r="AI19" s="2">
         <v>-27.73379817</v>
@@ -10244,13 +10244,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="AV19" s="2">
-        <v>-27.1255443785423</v>
+        <v>-27.12266924147726</v>
       </c>
       <c r="AW19" s="2">
-        <v>0.0004228185423009734</v>
+        <v>0.00245231852273875</v>
       </c>
       <c r="AX19" s="2">
-        <v>0.001558771050539666</v>
+        <v>0.009040765097823767</v>
       </c>
       <c r="AY19" s="2">
         <v>-25.6656192</v>
@@ -10280,25 +10280,25 @@
         <v>-30.42160629</v>
       </c>
       <c r="BH19" s="2">
-        <v>-31.23173392677231</v>
+        <v>-30.57620267594916</v>
       </c>
       <c r="BI19" s="2">
-        <v>0.8101276367723109</v>
+        <v>0.1545963859491586</v>
       </c>
       <c r="BJ19" s="2">
-        <v>2.663000858829111</v>
+        <v>0.5081795631546797</v>
       </c>
       <c r="BK19" s="2">
         <v>-20.73011097</v>
       </c>
       <c r="BL19" s="2">
-        <v>-21.15317306408234</v>
+        <v>-20.87120635064348</v>
       </c>
       <c r="BM19" s="2">
-        <v>0.4230620940823435</v>
+        <v>0.1410953806434847</v>
       </c>
       <c r="BN19" s="2">
-        <v>2.040809596700116</v>
+        <v>0.6806301271019425</v>
       </c>
       <c r="BO19" s="2">
         <v>-17.04495723</v>
@@ -10340,25 +10340,25 @@
         <v>0.709791332</v>
       </c>
       <c r="CB19" s="2">
-        <v>-23.45044144835737</v>
+        <v>-23.10542500055569</v>
       </c>
       <c r="CC19" s="2">
-        <v>24.16023278035737</v>
+        <v>23.81521633255569</v>
       </c>
       <c r="CD19" s="2">
-        <v>3403.850074116905</v>
+        <v>3355.241922362006</v>
       </c>
       <c r="CE19" s="2">
         <v>2.122313264</v>
       </c>
       <c r="CF19" s="2">
-        <v>-12.93572893305046</v>
+        <v>-12.92938249659837</v>
       </c>
       <c r="CG19" s="2">
-        <v>15.05804219705046</v>
+        <v>15.05169576059837</v>
       </c>
       <c r="CH19" s="2">
-        <v>709.5108178643723</v>
+        <v>709.2117839488925</v>
       </c>
       <c r="CI19" s="2">
         <v>1.460589758</v>
@@ -10564,25 +10564,25 @@
         <v>-15.06091557</v>
       </c>
       <c r="AB20" s="2">
-        <v>-13.88927651376808</v>
+        <v>-13.89773790257068</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.171639056231916</v>
+        <v>1.163177667429325</v>
       </c>
       <c r="AD20" s="2">
-        <v>7.779334867036345</v>
+        <v>7.723153761955026</v>
       </c>
       <c r="AE20" s="2">
         <v>-27.11310651</v>
       </c>
       <c r="AF20" s="2">
-        <v>-27.23397468617415</v>
+        <v>-27.23996580872139</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.1208681761741524</v>
+        <v>0.1268592987213886</v>
       </c>
       <c r="AH20" s="2">
-        <v>0.4457924293166963</v>
+        <v>0.467889205814906</v>
       </c>
       <c r="AI20" s="2">
         <v>-27.73379817</v>
@@ -10624,13 +10624,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="AV20" s="2">
-        <v>-25.88938805340798</v>
+        <v>-25.88096339477418</v>
       </c>
       <c r="AW20" s="2">
-        <v>1.23573350659202</v>
+        <v>1.244158165225816</v>
       </c>
       <c r="AX20" s="2">
-        <v>4.555679147312251</v>
+        <v>4.586737657465509</v>
       </c>
       <c r="AY20" s="2">
         <v>-25.6656192</v>
@@ -10660,25 +10660,25 @@
         <v>-30.42160629</v>
       </c>
       <c r="BH20" s="2">
-        <v>-30.75272493331532</v>
+        <v>-28.83190276481779</v>
       </c>
       <c r="BI20" s="2">
-        <v>0.331118643315321</v>
+        <v>1.589703525182205</v>
       </c>
       <c r="BJ20" s="2">
-        <v>1.088432478413095</v>
+        <v>5.22557392278383</v>
       </c>
       <c r="BK20" s="2">
         <v>-20.73011097</v>
       </c>
       <c r="BL20" s="2">
-        <v>-19.56105955408806</v>
+        <v>-18.75712668667631</v>
       </c>
       <c r="BM20" s="2">
-        <v>1.169051415911937</v>
+        <v>1.97298428332369</v>
       </c>
       <c r="BN20" s="2">
-        <v>5.639388122927822</v>
+        <v>9.517480568140394</v>
       </c>
       <c r="BO20" s="2">
         <v>-17.04495723</v>
@@ -10720,25 +10720,25 @@
         <v>-23.33605442</v>
       </c>
       <c r="CB20" s="2">
-        <v>-22.971927427592</v>
+        <v>-21.96096839154065</v>
       </c>
       <c r="CC20" s="2">
-        <v>0.3641269924079999</v>
+        <v>1.375086028459354</v>
       </c>
       <c r="CD20" s="2">
-        <v>1.560362286847975</v>
+        <v>5.892538660180899</v>
       </c>
       <c r="CE20" s="2">
         <v>-13.49958437</v>
       </c>
       <c r="CF20" s="2">
-        <v>-10.36039539856756</v>
+        <v>-10.34429680429466</v>
       </c>
       <c r="CG20" s="2">
-        <v>3.139188971432443</v>
+        <v>3.155287565705336</v>
       </c>
       <c r="CH20" s="2">
-        <v>23.25396756961372</v>
+        <v>23.37322008755545</v>
       </c>
       <c r="CI20" s="2">
         <v>-24.62280033</v>
@@ -10944,25 +10944,25 @@
         <v>0.889930942</v>
       </c>
       <c r="AB21" s="2">
-        <v>0.4099077983086484</v>
+        <v>0.4112964106128751</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.4800231436913516</v>
+        <v>0.4786345313871249</v>
       </c>
       <c r="AD21" s="2">
-        <v>53.93937001589856</v>
+        <v>53.78333405415236</v>
       </c>
       <c r="AE21" s="2">
         <v>1.256154901</v>
       </c>
       <c r="AF21" s="2">
-        <v>1.255988762609247</v>
+        <v>1.256923889323411</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.000166138390753412</v>
+        <v>0.0007689883234107686</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.01322594774109089</v>
+        <v>0.06121763508613407</v>
       </c>
       <c r="AI21" s="2">
         <v>0.788893731</v>
@@ -11004,13 +11004,13 @@
         <v>1.22750081</v>
       </c>
       <c r="AV21" s="2">
-        <v>1.051201536187905</v>
+        <v>1.049842551431339</v>
       </c>
       <c r="AW21" s="2">
-        <v>0.1762992738120945</v>
+        <v>0.1776582585686615</v>
       </c>
       <c r="AX21" s="2">
-        <v>14.36245682087123</v>
+        <v>14.47316833694484</v>
       </c>
       <c r="AY21" s="2">
         <v>1.605842023</v>
@@ -11040,25 +11040,25 @@
         <v>1.628688346</v>
       </c>
       <c r="BH21" s="2">
-        <v>1.41771119502959</v>
+        <v>1.107862670520978</v>
       </c>
       <c r="BI21" s="2">
-        <v>0.2109771509704097</v>
+        <v>0.5208256754790217</v>
       </c>
       <c r="BJ21" s="2">
-        <v>12.95380736827657</v>
+        <v>31.97822817104026</v>
       </c>
       <c r="BK21" s="2">
         <v>1.351008128</v>
       </c>
       <c r="BL21" s="2">
-        <v>0.7931664664548386</v>
+        <v>0.6747748178514517</v>
       </c>
       <c r="BM21" s="2">
-        <v>0.5578416615451613</v>
+        <v>0.6762333101485483</v>
       </c>
       <c r="BN21" s="2">
-        <v>41.29077020217316</v>
+        <v>50.05397792459087</v>
       </c>
       <c r="BO21" s="2">
         <v>0.701213447</v>
@@ -11100,13 +11100,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="CB21" s="2">
-        <v>1.038391122384446</v>
+        <v>0.8753129515904732</v>
       </c>
       <c r="CC21" s="2">
-        <v>24.37444554238445</v>
+        <v>24.21136737159047</v>
       </c>
       <c r="CD21" s="2">
-        <v>104.4497287488947</v>
+        <v>103.7509037982029</v>
       </c>
       <c r="CE21" s="2">
         <v>-13.49958437</v>
@@ -11324,25 +11324,25 @@
         <v>-0.291913566</v>
       </c>
       <c r="AB22" s="2">
-        <v>-0.1319928762084825</v>
+        <v>-0.1324614621516713</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.1599206897915175</v>
+        <v>0.1594521038483288</v>
       </c>
       <c r="AD22" s="2">
-        <v>54.78357583131903</v>
+        <v>54.62305367758371</v>
       </c>
       <c r="AE22" s="2">
         <v>-0.411970221</v>
       </c>
       <c r="AF22" s="2">
-        <v>-0.4117088755397539</v>
+        <v>-0.4120306664600952</v>
       </c>
       <c r="AG22" s="2">
-        <v>0.0002613454602460874</v>
+        <v>6.044546009520424e-05</v>
       </c>
       <c r="AH22" s="2">
-        <v>0.0634379493769496</v>
+        <v>0.01467228867865288</v>
       </c>
       <c r="AI22" s="2">
         <v>-0.254995953</v>
@@ -11384,13 +11384,13 @@
         <v>-0.401024311</v>
       </c>
       <c r="AV22" s="2">
-        <v>-0.3436481360162349</v>
+        <v>-0.3431894141648717</v>
       </c>
       <c r="AW22" s="2">
-        <v>0.05737617498376513</v>
+        <v>0.05783489683512832</v>
       </c>
       <c r="AX22" s="2">
-        <v>14.30740566343498</v>
+        <v>14.42179320523247</v>
       </c>
       <c r="AY22" s="2">
         <v>-0.527067562</v>
@@ -11420,25 +11420,25 @@
         <v>-0.534155391</v>
       </c>
       <c r="BH22" s="2">
-        <v>-0.4658668222144309</v>
+        <v>-0.3612782401044904</v>
       </c>
       <c r="BI22" s="2">
-        <v>0.06828856878556905</v>
+        <v>0.1728771508955095</v>
       </c>
       <c r="BJ22" s="2">
-        <v>12.78440130646721</v>
+        <v>32.364580383971</v>
       </c>
       <c r="BK22" s="2">
         <v>-0.441544233</v>
       </c>
       <c r="BL22" s="2">
-        <v>-0.2814210220925215</v>
+        <v>-0.2434853359470459</v>
       </c>
       <c r="BM22" s="2">
-        <v>0.1601232109074785</v>
+        <v>0.1980588970529541</v>
       </c>
       <c r="BN22" s="2">
-        <v>36.2643646865338</v>
+        <v>44.85595830507746</v>
       </c>
       <c r="BO22" s="2">
         <v>-0.227770042</v>
@@ -11480,25 +11480,25 @@
         <v>0.936146144</v>
       </c>
       <c r="CB22" s="2">
-        <v>-0.3409621805331169</v>
+        <v>-0.2859155583699831</v>
       </c>
       <c r="CC22" s="2">
-        <v>1.277108324533117</v>
+        <v>1.222061702369983</v>
       </c>
       <c r="CD22" s="2">
-        <v>136.4218965936495</v>
+        <v>130.5417653218452</v>
       </c>
       <c r="CE22" s="2">
         <v>0.306851918</v>
       </c>
       <c r="CF22" s="2">
-        <v>0.005272889899717303</v>
+        <v>0.005283810624393148</v>
       </c>
       <c r="CG22" s="2">
-        <v>0.3015790281002827</v>
+        <v>0.3015681073756069</v>
       </c>
       <c r="CH22" s="2">
-        <v>98.28161742182191</v>
+        <v>98.27805846584504</v>
       </c>
       <c r="CI22" s="2">
         <v>0.76683465</v>
@@ -11632,31 +11632,31 @@
         <v>0.594636015</v>
       </c>
       <c r="D23" s="2">
-        <v>11.96125930750323</v>
+        <v>-11.96125930750323</v>
       </c>
       <c r="E23" s="2">
-        <v>11.36662329250323</v>
+        <v>12.55589532250323</v>
       </c>
       <c r="F23" s="2">
-        <v>1911.526211964007</v>
+        <v>2111.526211964008</v>
       </c>
       <c r="G23" s="2">
         <v>0.411916123</v>
       </c>
       <c r="H23" s="2">
-        <v>13.43517486174559</v>
+        <v>-13.43517486174559</v>
       </c>
       <c r="I23" s="2">
-        <v>13.02325873874559</v>
+        <v>13.84709098474559</v>
       </c>
       <c r="J23" s="2">
-        <v>3161.628790807392</v>
+        <v>3361.628790807391</v>
       </c>
       <c r="K23" s="2">
         <v>0.03468269</v>
       </c>
       <c r="L23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0.03468269</v>
@@ -11668,43 +11668,43 @@
         <v>0.376047766</v>
       </c>
       <c r="P23" s="2">
-        <v>11.04938285912582</v>
+        <v>-11.04938285912582</v>
       </c>
       <c r="Q23" s="2">
-        <v>10.67333509312582</v>
+        <v>11.42543062512582</v>
       </c>
       <c r="R23" s="2">
-        <v>2838.292381485872</v>
+        <v>3038.292381485872</v>
       </c>
       <c r="S23" s="2">
         <v>0.532152835</v>
       </c>
       <c r="T23" s="2">
-        <v>-0.2060370741340243</v>
+        <v>0.2060370741340243</v>
       </c>
       <c r="U23" s="2">
-        <v>0.7381899091340243</v>
+        <v>0.3261157608659757</v>
       </c>
       <c r="V23" s="2">
-        <v>138.7176503783963</v>
+        <v>61.28234962160366</v>
       </c>
       <c r="W23" s="2">
         <v>0.407914424</v>
       </c>
       <c r="X23" s="2">
-        <v>11.9075421844244</v>
+        <v>-11.9075421844244</v>
       </c>
       <c r="Y23" s="2">
-        <v>11.4996277604244</v>
+        <v>12.31545660842439</v>
       </c>
       <c r="Z23" s="2">
-        <v>2819.127513967095</v>
+        <v>3019.127513967095</v>
       </c>
       <c r="AA23" s="2">
         <v>0.291913566</v>
       </c>
       <c r="AB23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="2">
         <v>0.291913566</v>
@@ -11716,19 +11716,19 @@
         <v>0.411970221</v>
       </c>
       <c r="AF23" s="2">
-        <v>-0.4117088755397539</v>
+        <v>0.4120306664600952</v>
       </c>
       <c r="AG23" s="2">
-        <v>0.823679096539754</v>
+        <v>6.044546009520424e-05</v>
       </c>
       <c r="AH23" s="2">
-        <v>199.9365620506231</v>
+        <v>0.01467228867865288</v>
       </c>
       <c r="AI23" s="2">
         <v>0.254995953</v>
       </c>
       <c r="AJ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="2">
         <v>0.254995953</v>
@@ -11740,31 +11740,31 @@
         <v>0.334250249</v>
       </c>
       <c r="AN23" s="2">
-        <v>12.94726372541895</v>
+        <v>-12.94726372541895</v>
       </c>
       <c r="AO23" s="2">
-        <v>12.61301347641895</v>
+        <v>13.28151397441895</v>
       </c>
       <c r="AP23" s="2">
-        <v>3773.524033012448</v>
+        <v>3973.524033012448</v>
       </c>
       <c r="AQ23" s="2">
         <v>0.538953027</v>
       </c>
       <c r="AR23" s="2">
-        <v>13.69436164931659</v>
+        <v>-13.69436164931659</v>
       </c>
       <c r="AS23" s="2">
-        <v>13.15540862231659</v>
+        <v>14.23331467631659</v>
       </c>
       <c r="AT23" s="2">
-        <v>2440.919331234518</v>
+        <v>2640.919331234518</v>
       </c>
       <c r="AU23" s="2">
         <v>0.401024311</v>
       </c>
       <c r="AV23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="2">
         <v>0.401024311</v>
@@ -11776,7 +11776,7 @@
         <v>0.527067562</v>
       </c>
       <c r="AZ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0.527067562</v>
@@ -11788,55 +11788,55 @@
         <v>0.27351028</v>
       </c>
       <c r="BD23" s="2">
-        <v>11.08732287276768</v>
+        <v>-11.08732287276768</v>
       </c>
       <c r="BE23" s="2">
-        <v>10.81381259276768</v>
+        <v>11.36083315276768</v>
       </c>
       <c r="BF23" s="2">
-        <v>3953.713400742262</v>
+        <v>4153.713400742262</v>
       </c>
       <c r="BG23" s="2">
         <v>0.534155391</v>
       </c>
       <c r="BH23" s="2">
-        <v>-0</v>
+        <v>-14.8163418996445</v>
       </c>
       <c r="BI23" s="2">
-        <v>0.534155391</v>
+        <v>15.3504972906445</v>
       </c>
       <c r="BJ23" s="2">
-        <v>100</v>
+        <v>2873.788704426743</v>
       </c>
       <c r="BK23" s="2">
         <v>0.441544233</v>
       </c>
       <c r="BL23" s="2">
-        <v>10.24162168450949</v>
+        <v>-10.1653627987365</v>
       </c>
       <c r="BM23" s="2">
-        <v>9.800077451509488</v>
+        <v>10.6069070317365</v>
       </c>
       <c r="BN23" s="2">
-        <v>2219.500724746073</v>
+        <v>2402.229774278697</v>
       </c>
       <c r="BO23" s="2">
         <v>0.227770042</v>
       </c>
       <c r="BP23" s="2">
-        <v>-0.1053522907015345</v>
+        <v>0.1053522907015345</v>
       </c>
       <c r="BQ23" s="2">
-        <v>0.3331223327015345</v>
+        <v>0.1224177512984655</v>
       </c>
       <c r="BR23" s="2">
-        <v>146.2537960552048</v>
+        <v>53.74620394479513</v>
       </c>
       <c r="BS23" s="2">
         <v>0.505177112</v>
       </c>
       <c r="BT23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="2">
         <v>0.505177112</v>
@@ -11848,67 +11848,67 @@
         <v>-0.409290762</v>
       </c>
       <c r="BX23" s="2">
-        <v>9.712273039693098</v>
+        <v>-9.712273039693098</v>
       </c>
       <c r="BY23" s="2">
-        <v>10.1215638016931</v>
+        <v>9.302982277693099</v>
       </c>
       <c r="BZ23" s="2">
-        <v>2472.951930855722</v>
+        <v>2272.951930855722</v>
       </c>
       <c r="CA23" s="2">
         <v>-0.306244745</v>
       </c>
       <c r="CB23" s="2">
-        <v>-0.3409621805331169</v>
+        <v>0.2859155583699831</v>
       </c>
       <c r="CC23" s="2">
-        <v>0.03471743553311696</v>
+        <v>0.5921603033699832</v>
       </c>
       <c r="CD23" s="2">
-        <v>11.33650000528726</v>
+        <v>193.361784336898</v>
       </c>
       <c r="CE23" s="2">
         <v>-0.09880061800000001</v>
       </c>
       <c r="CF23" s="2">
-        <v>0.005272889899717303</v>
+        <v>-0.005283810624393148</v>
       </c>
       <c r="CG23" s="2">
-        <v>0.1040735078997173</v>
+        <v>0.09351680737560686</v>
       </c>
       <c r="CH23" s="2">
-        <v>105.336899714248</v>
+        <v>94.65204698983447</v>
       </c>
       <c r="CI23" s="2">
         <v>-0.247269136</v>
       </c>
       <c r="CJ23" s="2">
-        <v>12.13709644585947</v>
+        <v>-12.13709644585947</v>
       </c>
       <c r="CK23" s="2">
-        <v>12.38436558185947</v>
+        <v>11.88982730985947</v>
       </c>
       <c r="CL23" s="2">
-        <v>5008.455880178862</v>
+        <v>4808.455880178862</v>
       </c>
       <c r="CM23" s="2">
         <v>-0.326405473</v>
       </c>
       <c r="CN23" s="2">
-        <v>13.34019783109357</v>
+        <v>-13.34019783109357</v>
       </c>
       <c r="CO23" s="2">
-        <v>13.66660330409357</v>
+        <v>13.01379235809357</v>
       </c>
       <c r="CP23" s="2">
-        <v>4187.001884032004</v>
+        <v>3987.001884032004</v>
       </c>
       <c r="CQ23" s="2">
         <v>-0.134530528</v>
       </c>
       <c r="CR23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS23" s="2">
         <v>0.134530528</v>
@@ -11920,67 +11920,67 @@
         <v>-0.306244745</v>
       </c>
       <c r="CV23" s="2">
-        <v>11.17512999034093</v>
+        <v>-11.17512999034093</v>
       </c>
       <c r="CW23" s="2">
-        <v>11.48137473534093</v>
+        <v>10.86888524534093</v>
       </c>
       <c r="CX23" s="2">
-        <v>3749.084652976146</v>
+        <v>3549.084652976146</v>
       </c>
       <c r="CY23" s="2">
         <v>-0.457097918</v>
       </c>
       <c r="CZ23" s="2">
-        <v>12.08630711825101</v>
+        <v>-12.08630711825101</v>
       </c>
       <c r="DA23" s="2">
-        <v>12.54340503625101</v>
+        <v>11.629209200251</v>
       </c>
       <c r="DB23" s="2">
-        <v>2744.139612609438</v>
+        <v>2544.139612609437</v>
       </c>
       <c r="DC23" s="2">
         <v>-0.210228155</v>
       </c>
       <c r="DD23" s="2">
-        <v>-0.2365646007048451</v>
+        <v>0.2365646007048451</v>
       </c>
       <c r="DE23" s="2">
-        <v>0.02633644570484514</v>
+        <v>0.4467927557048451</v>
       </c>
       <c r="DF23" s="2">
-        <v>12.52755403045093</v>
+        <v>212.5275540304509</v>
       </c>
       <c r="DG23" s="2">
         <v>-0.205394262</v>
       </c>
       <c r="DH23" s="2">
-        <v>10.06687504354681</v>
+        <v>-10.06687504354681</v>
       </c>
       <c r="DI23" s="2">
-        <v>10.27226930554681</v>
+        <v>9.861480781546813</v>
       </c>
       <c r="DJ23" s="2">
-        <v>5001.244536006958</v>
+        <v>4801.244536006957</v>
       </c>
       <c r="DK23" s="2">
         <v>-0.354683877</v>
       </c>
       <c r="DL23" s="2">
-        <v>13.25374319895617</v>
+        <v>-13.25374319895617</v>
       </c>
       <c r="DM23" s="2">
-        <v>13.60842707595617</v>
+        <v>12.89905932195617</v>
       </c>
       <c r="DN23" s="2">
-        <v>3836.776340401899</v>
+        <v>3636.776340401899</v>
       </c>
       <c r="DO23" s="2">
         <v>-0.170005226</v>
       </c>
       <c r="DP23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ23" s="2">
         <v>0.170005226</v>
@@ -11992,13 +11992,13 @@
         <v>-0.023003539</v>
       </c>
       <c r="DT23" s="2">
-        <v>0.004845897679141689</v>
+        <v>-0.004845897679141689</v>
       </c>
       <c r="DU23" s="2">
-        <v>0.02784943667914169</v>
+        <v>0.01815764132085831</v>
       </c>
       <c r="DV23" s="2">
-        <v>121.0658789464599</v>
+        <v>78.93412105354012</v>
       </c>
     </row>
     <row r="24" spans="1:126">
@@ -12084,25 +12084,25 @@
         <v>0.23109824</v>
       </c>
       <c r="AB24" s="2">
-        <v>0.04427594632345398</v>
+        <v>0.04485250373076184</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.186822293676546</v>
+        <v>0.1862457362692382</v>
       </c>
       <c r="AD24" s="2">
-        <v>80.84107160510871</v>
+        <v>80.59158575558091</v>
       </c>
       <c r="AE24" s="2">
         <v>0.31277346</v>
       </c>
       <c r="AF24" s="2">
-        <v>0.2803325938580669</v>
+        <v>0.2808448548808261</v>
       </c>
       <c r="AG24" s="2">
-        <v>0.03244086614193309</v>
+        <v>0.03192860511917395</v>
       </c>
       <c r="AH24" s="2">
-        <v>10.37200091783142</v>
+        <v>10.2082207100225</v>
       </c>
       <c r="AI24" s="2">
         <v>0.147419536</v>
@@ -12144,13 +12144,13 @@
         <v>0.287027553</v>
       </c>
       <c r="AV24" s="2">
-        <v>0.21608180370234</v>
+        <v>0.2155148882658224</v>
       </c>
       <c r="AW24" s="2">
-        <v>0.07094574929765998</v>
+        <v>0.07151266473417761</v>
       </c>
       <c r="AX24" s="2">
-        <v>24.71740031789212</v>
+        <v>24.91491286698097</v>
       </c>
       <c r="AY24" s="2">
         <v>0.411369804</v>
@@ -12180,25 +12180,25 @@
         <v>0.415670013</v>
       </c>
       <c r="BH24" s="2">
-        <v>0.3392224211543484</v>
+        <v>0.2099657016285068</v>
       </c>
       <c r="BI24" s="2">
-        <v>0.07644759184565164</v>
+        <v>0.2057043113714932</v>
       </c>
       <c r="BJ24" s="2">
-        <v>18.39141373078833</v>
+        <v>49.4874070628456</v>
       </c>
       <c r="BK24" s="2">
         <v>0.326273836</v>
       </c>
       <c r="BL24" s="2">
-        <v>0.09884153988083888</v>
+        <v>0.04452409640223998</v>
       </c>
       <c r="BM24" s="2">
-        <v>0.2274322961191611</v>
+        <v>0.28174973959776</v>
       </c>
       <c r="BN24" s="2">
-        <v>69.70595586437433</v>
+        <v>86.35376438758026</v>
       </c>
       <c r="BO24" s="2">
         <v>0.144221205</v>
@@ -12240,25 +12240,25 @@
         <v>0.306244745</v>
       </c>
       <c r="CB24" s="2">
-        <v>0.2433243272684122</v>
+        <v>0.1752944748863866</v>
       </c>
       <c r="CC24" s="2">
-        <v>0.06292041773158774</v>
+        <v>0.1309502701136134</v>
       </c>
       <c r="CD24" s="2">
-        <v>20.54579507367147</v>
+        <v>42.76000560062292</v>
       </c>
       <c r="CE24" s="2">
         <v>0.09880061800000001</v>
       </c>
       <c r="CF24" s="2">
-        <v>-0.1048886726369228</v>
+        <v>-0.1051059084104165</v>
       </c>
       <c r="CG24" s="2">
-        <v>0.2036892906369228</v>
+        <v>0.2039065264104165</v>
       </c>
       <c r="CH24" s="2">
-        <v>206.1619600769327</v>
+        <v>206.3818329662842</v>
       </c>
       <c r="CI24" s="2">
         <v>0.247269136</v>
@@ -12464,25 +12464,25 @@
         <v>0.889930942</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.4099077983086484</v>
+        <v>0.4112964106128751</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.4800231436913516</v>
+        <v>0.4786345313871249</v>
       </c>
       <c r="AD25" s="2">
-        <v>53.93937001589856</v>
+        <v>53.78333405415236</v>
       </c>
       <c r="AE25" s="2">
         <v>1.256154901</v>
       </c>
       <c r="AF25" s="2">
-        <v>1.255988762609247</v>
+        <v>1.256923889323411</v>
       </c>
       <c r="AG25" s="2">
-        <v>0.000166138390753412</v>
+        <v>0.0007689883234107686</v>
       </c>
       <c r="AH25" s="2">
-        <v>0.01322594774109089</v>
+        <v>0.06121763508613407</v>
       </c>
       <c r="AI25" s="2">
         <v>0.788893731</v>
@@ -12524,13 +12524,13 @@
         <v>1.22750081</v>
       </c>
       <c r="AV25" s="2">
-        <v>1.051201536187905</v>
+        <v>1.049842551431339</v>
       </c>
       <c r="AW25" s="2">
-        <v>0.1762992738120945</v>
+        <v>0.1776582585686615</v>
       </c>
       <c r="AX25" s="2">
-        <v>14.36245682087123</v>
+        <v>14.47316833694484</v>
       </c>
       <c r="AY25" s="2">
         <v>1.605842023</v>
@@ -12560,25 +12560,25 @@
         <v>1.628688346</v>
       </c>
       <c r="BH25" s="2">
-        <v>1.41771119502959</v>
+        <v>1.107862670520978</v>
       </c>
       <c r="BI25" s="2">
-        <v>0.2109771509704097</v>
+        <v>0.5208256754790217</v>
       </c>
       <c r="BJ25" s="2">
-        <v>12.95380736827657</v>
+        <v>31.97822817104026</v>
       </c>
       <c r="BK25" s="2">
         <v>1.351008128</v>
       </c>
       <c r="BL25" s="2">
-        <v>0.7931664664548386</v>
+        <v>0.6747748178514517</v>
       </c>
       <c r="BM25" s="2">
-        <v>0.5578416615451613</v>
+        <v>0.6762333101485483</v>
       </c>
       <c r="BN25" s="2">
-        <v>41.29077020217316</v>
+        <v>50.05397792459087</v>
       </c>
       <c r="BO25" s="2">
         <v>0.701213447</v>
@@ -12620,13 +12620,13 @@
         <v>0.936146144</v>
       </c>
       <c r="CB25" s="2">
-        <v>1.038391122384446</v>
+        <v>0.8753129515904732</v>
       </c>
       <c r="CC25" s="2">
-        <v>0.1022449783844458</v>
+        <v>0.06083319240952678</v>
       </c>
       <c r="CD25" s="2">
-        <v>10.92190349121876</v>
+        <v>6.498258076414913</v>
       </c>
       <c r="CE25" s="2">
         <v>0.306851918</v>
@@ -12844,25 +12844,25 @@
         <v>7.800579194</v>
       </c>
       <c r="AB26" s="2">
-        <v>7.749234371456515</v>
+        <v>7.749003868511467</v>
       </c>
       <c r="AC26" s="2">
-        <v>0.05134482254348516</v>
+        <v>0.05157532548853272</v>
       </c>
       <c r="AD26" s="2">
-        <v>0.6582180792802955</v>
+        <v>0.6611730258209941</v>
       </c>
       <c r="AE26" s="2">
         <v>13.58691961</v>
       </c>
       <c r="AF26" s="2">
-        <v>13.33486019335211</v>
+        <v>13.33596806207247</v>
       </c>
       <c r="AG26" s="2">
-        <v>0.252059416647894</v>
+        <v>0.250951547927535</v>
       </c>
       <c r="AH26" s="2">
-        <v>1.855162346455467</v>
+        <v>1.847008410521795</v>
       </c>
       <c r="AI26" s="2">
         <v>14.49891054</v>
@@ -12904,13 +12904,13 @@
         <v>13.71930632</v>
       </c>
       <c r="AV26" s="2">
-        <v>13.28051319904985</v>
+        <v>13.28071169196172</v>
       </c>
       <c r="AW26" s="2">
-        <v>0.4387931209501481</v>
+        <v>0.4385946280382793</v>
       </c>
       <c r="AX26" s="2">
-        <v>3.198362298467493</v>
+        <v>3.196915483976739</v>
       </c>
       <c r="AY26" s="2">
         <v>12.62069704</v>
@@ -12940,25 +12940,25 @@
         <v>15.39047359</v>
       </c>
       <c r="BH26" s="2">
-        <v>15.0238922383218</v>
+        <v>15.06914862223133</v>
       </c>
       <c r="BI26" s="2">
-        <v>0.3665813516782013</v>
+        <v>0.3213249677686658</v>
       </c>
       <c r="BJ26" s="2">
-        <v>2.38187180878169</v>
+        <v>2.087817284436572</v>
       </c>
       <c r="BK26" s="2">
         <v>10.38605814</v>
       </c>
       <c r="BL26" s="2">
-        <v>10.48980012092067</v>
+        <v>10.49899469113163</v>
       </c>
       <c r="BM26" s="2">
-        <v>0.1037419809206668</v>
+        <v>0.1129365511316269</v>
       </c>
       <c r="BN26" s="2">
-        <v>0.9988580799593596</v>
+        <v>1.087386086321552</v>
       </c>
       <c r="BO26" s="2">
         <v>8.749751343</v>
@@ -13000,25 +13000,25 @@
         <v>11.88516395</v>
       </c>
       <c r="CB26" s="2">
-        <v>11.31433854004419</v>
+        <v>11.33815768947026</v>
       </c>
       <c r="CC26" s="2">
-        <v>0.570825409955809</v>
+        <v>0.5470062605297379</v>
       </c>
       <c r="CD26" s="2">
-        <v>4.802840014300426</v>
+        <v>4.602429237248661</v>
       </c>
       <c r="CE26" s="2">
         <v>7.3919962</v>
       </c>
       <c r="CF26" s="2">
-        <v>6.931514254704109</v>
+        <v>6.929301305283399</v>
       </c>
       <c r="CG26" s="2">
-        <v>0.460481945295891</v>
+        <v>0.4626948947166012</v>
       </c>
       <c r="CH26" s="2">
-        <v>6.229466748046908</v>
+        <v>6.259403849755783</v>
       </c>
       <c r="CI26" s="2">
         <v>13.16833288</v>
@@ -13224,25 +13224,25 @@
         <v>8.323591</v>
       </c>
       <c r="AB27" s="2">
-        <v>7.525237928085939</v>
+        <v>7.525914201158632</v>
       </c>
       <c r="AC27" s="2">
-        <v>0.798353071914061</v>
+        <v>0.7976767988413682</v>
       </c>
       <c r="AD27" s="2">
-        <v>9.59145003537609</v>
+        <v>9.583325259991367</v>
       </c>
       <c r="AE27" s="2">
         <v>14.31166329</v>
       </c>
       <c r="AF27" s="2">
-        <v>13.62510204342835</v>
+        <v>13.62762649553252</v>
       </c>
       <c r="AG27" s="2">
-        <v>0.6865612465716531</v>
+        <v>0.6840367944674792</v>
       </c>
       <c r="AH27" s="2">
-        <v>4.797214919466241</v>
+        <v>4.779575794977212</v>
       </c>
       <c r="AI27" s="2">
         <v>14.90132603</v>
@@ -13284,13 +13284,13 @@
         <v>14.40735818</v>
       </c>
       <c r="AV27" s="2">
-        <v>13.10644768615998</v>
+        <v>13.10574836569263</v>
       </c>
       <c r="AW27" s="2">
-        <v>1.300910493840021</v>
+        <v>1.301609814307373</v>
       </c>
       <c r="AX27" s="2">
-        <v>9.029486721902416</v>
+        <v>9.034340633761996</v>
       </c>
       <c r="AY27" s="2">
         <v>13.55913441</v>
@@ -13320,13 +13320,13 @@
         <v>16.34127019</v>
       </c>
       <c r="BH27" s="2">
-        <v>14.97578696619859</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="2">
-        <v>1.365483223801411</v>
+        <v>16.34127019</v>
       </c>
       <c r="BJ27" s="2">
-        <v>8.356040919248828</v>
+        <v>100</v>
       </c>
       <c r="BK27" s="2">
         <v>11.15387621</v>
@@ -13380,25 +13380,25 @@
         <v>12.4105939</v>
       </c>
       <c r="CB27" s="2">
-        <v>11.60001062695514</v>
+        <v>11.46104554871092</v>
       </c>
       <c r="CC27" s="2">
-        <v>0.8105832730448572</v>
+        <v>0.949548351289085</v>
       </c>
       <c r="CD27" s="2">
-        <v>6.531381814409842</v>
+        <v>7.651111292015485</v>
       </c>
       <c r="CE27" s="2">
         <v>7.543047144</v>
       </c>
       <c r="CF27" s="2">
-        <v>6.516688995875557</v>
+        <v>6.513616898524934</v>
       </c>
       <c r="CG27" s="2">
-        <v>1.026358148124443</v>
+        <v>1.029430245475066</v>
       </c>
       <c r="CH27" s="2">
-        <v>13.60667815712705</v>
+        <v>13.64740569457941</v>
       </c>
       <c r="CI27" s="2">
         <v>13.55575456</v>
@@ -13604,25 +13604,25 @@
         <v>12.84134784</v>
       </c>
       <c r="AB28" s="2">
-        <v>11.78599545536309</v>
+        <v>11.79704578948816</v>
       </c>
       <c r="AC28" s="2">
-        <v>1.055352384636913</v>
+        <v>1.04430205051184</v>
       </c>
       <c r="AD28" s="2">
-        <v>8.21839263125913</v>
+        <v>8.132339872134795</v>
       </c>
       <c r="AE28" s="2">
         <v>24.21926825</v>
       </c>
       <c r="AF28" s="2">
-        <v>23.56846823534457</v>
+        <v>23.58528576375903</v>
       </c>
       <c r="AG28" s="2">
-        <v>0.6508000146554274</v>
+        <v>0.6339824862409671</v>
       </c>
       <c r="AH28" s="2">
-        <v>2.687116753229848</v>
+        <v>2.617678121802739</v>
       </c>
       <c r="AI28" s="2">
         <v>24.21440456</v>
@@ -13664,13 +13664,13 @@
         <v>24.46022683</v>
       </c>
       <c r="AV28" s="2">
-        <v>23.01187337835453</v>
+        <v>23.00100819624262</v>
       </c>
       <c r="AW28" s="2">
-        <v>1.448353451645474</v>
+        <v>1.459218633757381</v>
       </c>
       <c r="AX28" s="2">
-        <v>5.921259282310073</v>
+        <v>5.965679075255659</v>
       </c>
       <c r="AY28" s="2">
         <v>22.13089261</v>
@@ -13700,25 +13700,25 @@
         <v>27.13472592</v>
       </c>
       <c r="BH28" s="2">
-        <v>27.89600626818169</v>
+        <v>25.41874474665938</v>
       </c>
       <c r="BI28" s="2">
-        <v>0.761280348181689</v>
+        <v>1.715981173340623</v>
       </c>
       <c r="BJ28" s="2">
-        <v>2.805557536958859</v>
+        <v>6.323930370256059</v>
       </c>
       <c r="BK28" s="2">
         <v>16.87700748</v>
       </c>
       <c r="BL28" s="2">
-        <v>16.86339975117324</v>
+        <v>15.81742211660942</v>
       </c>
       <c r="BM28" s="2">
-        <v>0.01360772882675931</v>
+        <v>1.059585363390578</v>
       </c>
       <c r="BN28" s="2">
-        <v>0.08062880130191963</v>
+        <v>6.278277500595018</v>
       </c>
       <c r="BO28" s="2">
         <v>14.44923658</v>
@@ -13760,25 +13760,25 @@
         <v>20.49186441</v>
       </c>
       <c r="CB28" s="2">
-        <v>20.76950966960098</v>
+        <v>19.46568781616825</v>
       </c>
       <c r="CC28" s="2">
-        <v>0.2776452596009804</v>
+        <v>1.026176593831753</v>
       </c>
       <c r="CD28" s="2">
-        <v>1.354904824889871</v>
+        <v>5.007726838808187</v>
       </c>
       <c r="CE28" s="2">
         <v>11.08259006</v>
       </c>
       <c r="CF28" s="2">
-        <v>8.763411554594516</v>
+        <v>8.744005434238133</v>
       </c>
       <c r="CG28" s="2">
-        <v>2.319178505405484</v>
+        <v>2.338584625761866</v>
       </c>
       <c r="CH28" s="2">
-        <v>20.92632221213354</v>
+        <v>21.10142677028574</v>
       </c>
       <c r="CI28" s="2">
         <v>20.59646492</v>
@@ -13984,25 +13984,25 @@
         <v>11.72674227</v>
       </c>
       <c r="AB29" s="2">
-        <v>11.72511027075804</v>
+        <v>11.73623554893934</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.001631999241958226</v>
+        <v>0.009493278939336491</v>
       </c>
       <c r="AD29" s="2">
-        <v>0.01391690210616547</v>
+        <v>0.08095410234795319</v>
       </c>
       <c r="AE29" s="2">
         <v>22.71962215</v>
       </c>
       <c r="AF29" s="2">
-        <v>23.47727866483181</v>
+        <v>23.49422840041953</v>
       </c>
       <c r="AG29" s="2">
-        <v>0.7576565148318117</v>
+        <v>0.7746062504195343</v>
       </c>
       <c r="AH29" s="2">
-        <v>3.334811247430062</v>
+        <v>3.40941519760061</v>
       </c>
       <c r="AI29" s="2">
         <v>23.48449997</v>
@@ -14044,13 +14044,13 @@
         <v>22.88249949</v>
       </c>
       <c r="AV29" s="2">
-        <v>22.92332833120684</v>
+        <v>22.91238805086232</v>
       </c>
       <c r="AW29" s="2">
-        <v>0.04082884120684227</v>
+        <v>0.02988856086231451</v>
       </c>
       <c r="AX29" s="2">
-        <v>0.1784282404318859</v>
+        <v>0.1306175528393489</v>
       </c>
       <c r="AY29" s="2">
         <v>20.70360192</v>
@@ -14080,25 +14080,25 @@
         <v>25.29636408</v>
       </c>
       <c r="BH29" s="2">
-        <v>26.17683849890329</v>
+        <v>25.31371722403355</v>
       </c>
       <c r="BI29" s="2">
-        <v>0.8804744189032938</v>
+        <v>0.01735314403354948</v>
       </c>
       <c r="BJ29" s="2">
-        <v>3.480636253173716</v>
+        <v>0.06859936067756613</v>
       </c>
       <c r="BK29" s="2">
         <v>15.72084501</v>
       </c>
       <c r="BL29" s="2">
-        <v>14.15623994545477</v>
+        <v>12.48824976829611</v>
       </c>
       <c r="BM29" s="2">
-        <v>1.564605064545228</v>
+        <v>3.232595241703887</v>
       </c>
       <c r="BN29" s="2">
-        <v>9.952423445113705</v>
+        <v>20.56247765083645</v>
       </c>
       <c r="BO29" s="2">
         <v>13.34298111</v>
@@ -14140,25 +14140,25 @@
         <v>19.34656322</v>
       </c>
       <c r="CB29" s="2">
-        <v>19.33148632196133</v>
+        <v>17.23413273251056</v>
       </c>
       <c r="CC29" s="2">
-        <v>0.01507689803867152</v>
+        <v>2.112430487489444</v>
       </c>
       <c r="CD29" s="2">
-        <v>0.0779306270949736</v>
+        <v>10.9188927432117</v>
       </c>
       <c r="CE29" s="2">
         <v>8.041365861999999</v>
       </c>
       <c r="CF29" s="2">
-        <v>8.044217175732649</v>
+        <v>8.023321526113863</v>
       </c>
       <c r="CG29" s="2">
-        <v>0.00285131373265024</v>
+        <v>0.01804433588613641</v>
       </c>
       <c r="CH29" s="2">
-        <v>0.03545807741598116</v>
+        <v>0.2243939175980799</v>
       </c>
       <c r="CI29" s="2">
         <v>19.35261561</v>
@@ -14744,25 +14744,25 @@
         <v>0.303758115</v>
       </c>
       <c r="AB31" s="2">
-        <v>0.07990213535196783</v>
+        <v>0.07980378318036879</v>
       </c>
       <c r="AC31" s="2">
-        <v>0.2238559796480322</v>
+        <v>0.2239543318196312</v>
       </c>
       <c r="AD31" s="2">
-        <v>73.6954730075383</v>
+        <v>73.7278514582668</v>
       </c>
       <c r="AE31" s="2">
         <v>0.487406232</v>
       </c>
       <c r="AF31" s="2">
-        <v>0.1196718290839324</v>
+        <v>0.1194983281654227</v>
       </c>
       <c r="AG31" s="2">
-        <v>0.3677344029160676</v>
+        <v>0.3679079038345773</v>
       </c>
       <c r="AH31" s="2">
-        <v>75.44720989863495</v>
+        <v>75.48280667748567</v>
       </c>
       <c r="AI31" s="2">
         <v>0.530689349</v>
@@ -14804,13 +14804,13 @@
         <v>0.559917918</v>
       </c>
       <c r="AV31" s="2">
-        <v>0.1162013121555756</v>
+        <v>0.1162998666592108</v>
       </c>
       <c r="AW31" s="2">
-        <v>0.4437166058444245</v>
+        <v>0.4436180513407892</v>
       </c>
       <c r="AX31" s="2">
-        <v>79.24672377504169</v>
+        <v>79.22912217658111</v>
       </c>
       <c r="AY31" s="2">
         <v>0.570244797</v>
@@ -14840,25 +14840,25 @@
         <v>0.770065103</v>
       </c>
       <c r="BH31" s="2">
-        <v>0.1153615167372467</v>
+        <v>0.1378319435667046</v>
       </c>
       <c r="BI31" s="2">
-        <v>0.6547035862627533</v>
+        <v>0.6322331594332954</v>
       </c>
       <c r="BJ31" s="2">
-        <v>85.01925145188059</v>
+        <v>82.1012609155067</v>
       </c>
       <c r="BK31" s="2">
         <v>0.570021808</v>
       </c>
       <c r="BL31" s="2">
-        <v>0.103356283317659</v>
+        <v>0.1126298201447621</v>
       </c>
       <c r="BM31" s="2">
-        <v>0.466665524682341</v>
+        <v>0.4573919878552379</v>
       </c>
       <c r="BN31" s="2">
-        <v>81.86801243968213</v>
+        <v>80.24113839785545</v>
       </c>
       <c r="BO31" s="2">
         <v>0.410049698</v>
@@ -14900,25 +14900,25 @@
         <v>0.428345233</v>
       </c>
       <c r="CB31" s="2">
-        <v>0.08893919312107119</v>
+        <v>0.100765733557625</v>
       </c>
       <c r="CC31" s="2">
-        <v>0.3394060398789288</v>
+        <v>0.327579499442375</v>
       </c>
       <c r="CD31" s="2">
-        <v>79.23656287752566</v>
+        <v>76.4755795571968</v>
       </c>
       <c r="CE31" s="2">
         <v>2.376191152</v>
       </c>
       <c r="CF31" s="2">
-        <v>0.7407909901022819</v>
+        <v>0.7423252482799239</v>
       </c>
       <c r="CG31" s="2">
-        <v>1.635400161897718</v>
+        <v>1.633865903720076</v>
       </c>
       <c r="CH31" s="2">
-        <v>68.82443613684991</v>
+        <v>68.7598681757938</v>
       </c>
       <c r="CI31" s="2">
         <v>0.543098568</v>
@@ -15124,25 +15124,25 @@
         <v>1.106345819</v>
       </c>
       <c r="AB32" s="2">
-        <v>0.9006364815791557</v>
+        <v>0.8995278809967754</v>
       </c>
       <c r="AC32" s="2">
-        <v>0.2057093374208443</v>
+        <v>0.2068179380032246</v>
       </c>
       <c r="AD32" s="2">
-        <v>18.59358384042886</v>
+        <v>18.69378764319482</v>
       </c>
       <c r="AE32" s="2">
         <v>1.4708495</v>
       </c>
       <c r="AF32" s="2">
-        <v>2.132832871800772</v>
+        <v>2.124228545062556</v>
       </c>
       <c r="AG32" s="2">
-        <v>0.6619833718007717</v>
+        <v>0.6533790450625561</v>
       </c>
       <c r="AH32" s="2">
-        <v>45.00687336133111</v>
+        <v>44.42188307250715</v>
       </c>
       <c r="AI32" s="2">
         <v>1.550506711</v>
@@ -15232,13 +15232,13 @@
         <v>2.172602845</v>
       </c>
       <c r="BL32" s="2">
-        <v>1.304829908508803</v>
+        <v>1.421904437712529</v>
       </c>
       <c r="BM32" s="2">
-        <v>0.8677729364911972</v>
+        <v>0.7506984072874707</v>
       </c>
       <c r="BN32" s="2">
-        <v>39.94162755002731</v>
+        <v>34.55295149848111</v>
       </c>
       <c r="BO32" s="2">
         <v>1.286958042</v>
@@ -15280,13 +15280,13 @@
         <v>1.412618456</v>
       </c>
       <c r="CB32" s="2">
-        <v>1.002502846189689</v>
+        <v>1.135808985273761</v>
       </c>
       <c r="CC32" s="2">
-        <v>0.4101156098103114</v>
+        <v>0.276809470726239</v>
       </c>
       <c r="CD32" s="2">
-        <v>29.03229871225124</v>
+        <v>19.59548734129232</v>
       </c>
       <c r="CE32" s="2">
         <v>0.322183273</v>
@@ -15884,25 +15884,25 @@
         <v>0.2097</v>
       </c>
       <c r="AB34" s="2">
-        <v>0.3318839571889085</v>
+        <v>0.3314754385959494</v>
       </c>
       <c r="AC34" s="2">
-        <v>0.1221839571889085</v>
+        <v>0.1217754385959494</v>
       </c>
       <c r="AD34" s="2">
-        <v>58.26607400520196</v>
+        <v>58.07126304050998</v>
       </c>
       <c r="AE34" s="2">
         <v>0.338</v>
       </c>
       <c r="AF34" s="2">
-        <v>0.4970725754131178</v>
+        <v>0.4963519166828193</v>
       </c>
       <c r="AG34" s="2">
-        <v>0.1590725754131178</v>
+        <v>0.1583519166828193</v>
       </c>
       <c r="AH34" s="2">
-        <v>47.0628921340585</v>
+        <v>46.84967949195836</v>
       </c>
       <c r="AI34" s="2">
         <v>0.3745</v>
@@ -15944,13 +15944,13 @@
         <v>0.386</v>
       </c>
       <c r="AV34" s="2">
-        <v>0.4826573299806844</v>
+        <v>0.4830666889861874</v>
       </c>
       <c r="AW34" s="2">
-        <v>0.09665732998068444</v>
+        <v>0.09706668898618742</v>
       </c>
       <c r="AX34" s="2">
-        <v>25.04075906235348</v>
+        <v>25.14681061818327</v>
       </c>
       <c r="AY34" s="2">
         <v>0.372</v>
@@ -15980,25 +15980,25 @@
         <v>0.423</v>
       </c>
       <c r="BH34" s="2">
-        <v>0.4791691300040961</v>
+        <v>0.5725029832613808</v>
       </c>
       <c r="BI34" s="2">
-        <v>0.05616913000409607</v>
+        <v>0.1495029832613808</v>
       </c>
       <c r="BJ34" s="2">
-        <v>13.27875413808418</v>
+        <v>35.34349486084653</v>
       </c>
       <c r="BK34" s="2">
         <v>0.411</v>
       </c>
       <c r="BL34" s="2">
-        <v>0.4293038246938148</v>
+        <v>0.467822671352401</v>
       </c>
       <c r="BM34" s="2">
-        <v>0.01830382469381481</v>
+        <v>0.05682267135240099</v>
       </c>
       <c r="BN34" s="2">
-        <v>4.453485326962241</v>
+        <v>13.82546748233601</v>
       </c>
       <c r="BO34" s="2">
         <v>0.29</v>
@@ -16040,25 +16040,25 @@
         <v>0.4</v>
       </c>
       <c r="CB34" s="2">
-        <v>0.3694205571876834</v>
+        <v>0.4185436378494004</v>
       </c>
       <c r="CC34" s="2">
-        <v>0.03057944281231662</v>
+        <v>0.01854363784940033</v>
       </c>
       <c r="CD34" s="2">
-        <v>7.644860703079154</v>
+        <v>4.635909462350082</v>
       </c>
       <c r="CE34" s="2">
         <v>0.17</v>
       </c>
       <c r="CF34" s="2">
-        <v>0.3769042101294193</v>
+        <v>0.3776848194703873</v>
       </c>
       <c r="CG34" s="2">
-        <v>0.2069042101294193</v>
+        <v>0.2076848194703873</v>
       </c>
       <c r="CH34" s="2">
-        <v>121.7083588996584</v>
+        <v>122.1675408649337</v>
       </c>
       <c r="CI34" s="2">
         <v>0.37</v>
@@ -16773,7 +16773,7 @@
         <v>1.112619062</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>1.112619062</v>
@@ -16993,7 +16993,7 @@
         <v>0.254995953</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.254995953</v>
@@ -17449,13 +17449,13 @@
         <v>0.138518121</v>
       </c>
       <c r="D12" s="2">
-        <v>2.293601894216779</v>
+        <v>-2.293601894216779</v>
       </c>
       <c r="E12" s="2">
-        <v>2.155083773216779</v>
+        <v>2.432120015216779</v>
       </c>
       <c r="F12" s="2">
-        <v>1555.813605944582</v>
+        <v>1755.813605944582</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -17669,13 +17669,13 @@
         <v>0.334250249</v>
       </c>
       <c r="D23" s="2">
-        <v>12.94726372541895</v>
+        <v>-12.94726372541895</v>
       </c>
       <c r="E23" s="2">
-        <v>12.61301347641895</v>
+        <v>13.28151397441895</v>
       </c>
       <c r="F23" s="2">
-        <v>3773.524033012448</v>
+        <v>3973.524033012448</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -18122,7 +18122,7 @@
         <v>0.009015943</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.009015943</v>
@@ -18342,13 +18342,13 @@
         <v>0.538953027</v>
       </c>
       <c r="D23" s="2">
-        <v>13.69436164931659</v>
+        <v>-13.69436164931659</v>
       </c>
       <c r="E23" s="2">
-        <v>13.15540862231659</v>
+        <v>14.23331467631659</v>
       </c>
       <c r="F23" s="2">
-        <v>2440.919331234518</v>
+        <v>2640.919331234518</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -18658,13 +18658,13 @@
         <v>-27.14446029</v>
       </c>
       <c r="D5" s="2">
-        <v>-25.63425538878019</v>
+        <v>-25.62561434297609</v>
       </c>
       <c r="E5" s="2">
-        <v>1.510204901219812</v>
+        <v>1.518845947023916</v>
       </c>
       <c r="F5" s="2">
-        <v>5.563584190237777</v>
+        <v>5.595417741952518</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -18678,13 +18678,13 @@
         <v>24.46044733</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8324434409336564</v>
+        <v>0.8331494660946784</v>
       </c>
       <c r="E6" s="2">
-        <v>23.62800388906635</v>
+        <v>23.62729786390532</v>
       </c>
       <c r="F6" s="2">
-        <v>96.59677752535339</v>
+        <v>96.59389113022129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -18718,13 +18718,13 @@
         <v>0.517056726</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3636378936660873</v>
+        <v>0.3639463080157054</v>
       </c>
       <c r="E8" s="2">
-        <v>0.1534188323339126</v>
+        <v>0.1531104179842946</v>
       </c>
       <c r="F8" s="2">
-        <v>29.67156689378655</v>
+        <v>29.61191882538138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -18738,13 +18738,13 @@
         <v>0.06310534800000001</v>
       </c>
       <c r="D9" s="2">
-        <v>5.620062980946134</v>
+        <v>5.633831744120947</v>
       </c>
       <c r="E9" s="2">
-        <v>5.556957632946134</v>
+        <v>5.570726396120947</v>
       </c>
       <c r="F9" s="2">
-        <v>8805.842625170428</v>
+        <v>8827.661319799625</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -18758,13 +18758,13 @@
         <v>-0.517056726</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.4917312877843214</v>
+        <v>-0.4921483427391278</v>
       </c>
       <c r="E10" s="2">
-        <v>0.02532543821567856</v>
+        <v>0.02490838326087214</v>
       </c>
       <c r="F10" s="2">
-        <v>4.897999956716271</v>
+        <v>4.817340536997896</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -18798,7 +18798,7 @@
         <v>0.125192869</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.125192869</v>
@@ -18818,13 +18818,13 @@
         <v>27.12512156</v>
       </c>
       <c r="D13" s="2">
-        <v>25.88938805340798</v>
+        <v>25.88096339477418</v>
       </c>
       <c r="E13" s="2">
-        <v>1.23573350659202</v>
+        <v>1.244158165225816</v>
       </c>
       <c r="F13" s="2">
-        <v>4.555679147312251</v>
+        <v>4.586737657465509</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -18838,13 +18838,13 @@
         <v>-14.40735818</v>
       </c>
       <c r="D14" s="2">
-        <v>-13.4456592844923</v>
+        <v>-13.44449747938673</v>
       </c>
       <c r="E14" s="2">
-        <v>0.9616988955077019</v>
+        <v>0.9628607006132661</v>
       </c>
       <c r="F14" s="2">
-        <v>6.67505370167525</v>
+        <v>6.683117672120415</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -18858,13 +18858,13 @@
         <v>27.12512156</v>
       </c>
       <c r="D15" s="2">
-        <v>27.1255443785423</v>
+        <v>27.12266924147726</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0004228185423009734</v>
+        <v>0.00245231852273875</v>
       </c>
       <c r="F15" s="2">
-        <v>0.001558771050539666</v>
+        <v>0.009040765097823767</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -18878,13 +18878,13 @@
         <v>14.40735818</v>
       </c>
       <c r="D16" s="2">
-        <v>13.10644768615998</v>
+        <v>13.10574836569263</v>
       </c>
       <c r="E16" s="2">
-        <v>1.300910493840021</v>
+        <v>1.301609814307373</v>
       </c>
       <c r="F16" s="2">
-        <v>9.029486721902416</v>
+        <v>9.034340633761996</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -18898,13 +18898,13 @@
         <v>-0.212726094</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1812812665672663</v>
+        <v>-0.1814350177162689</v>
       </c>
       <c r="E17" s="2">
-        <v>0.03144482743273372</v>
+        <v>0.0312910762837311</v>
       </c>
       <c r="F17" s="2">
-        <v>14.78183839201867</v>
+        <v>14.7095618103772</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -18938,13 +18938,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="D19" s="2">
-        <v>-27.1255443785423</v>
+        <v>-27.12266924147726</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0004228185423009734</v>
+        <v>0.00245231852273875</v>
       </c>
       <c r="F19" s="2">
-        <v>0.001558771050539666</v>
+        <v>0.009040765097823767</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -18958,13 +18958,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="D20" s="2">
-        <v>-25.88938805340798</v>
+        <v>-25.88096339477418</v>
       </c>
       <c r="E20" s="2">
-        <v>1.23573350659202</v>
+        <v>1.244158165225816</v>
       </c>
       <c r="F20" s="2">
-        <v>4.555679147312251</v>
+        <v>4.586737657465509</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -18978,13 +18978,13 @@
         <v>1.22750081</v>
       </c>
       <c r="D21" s="2">
-        <v>1.051201536187905</v>
+        <v>1.049842551431339</v>
       </c>
       <c r="E21" s="2">
-        <v>0.1762992738120945</v>
+        <v>0.1776582585686615</v>
       </c>
       <c r="F21" s="2">
-        <v>14.36245682087123</v>
+        <v>14.47316833694484</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -18998,13 +18998,13 @@
         <v>-0.401024311</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.3436481360162349</v>
+        <v>-0.3431894141648717</v>
       </c>
       <c r="E22" s="2">
-        <v>0.05737617498376513</v>
+        <v>0.05783489683512832</v>
       </c>
       <c r="F22" s="2">
-        <v>14.30740566343498</v>
+        <v>14.42179320523247</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -19018,7 +19018,7 @@
         <v>0.401024311</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.401024311</v>
@@ -19038,13 +19038,13 @@
         <v>0.287027553</v>
       </c>
       <c r="D24" s="2">
-        <v>0.21608180370234</v>
+        <v>0.2155148882658224</v>
       </c>
       <c r="E24" s="2">
-        <v>0.07094574929765998</v>
+        <v>0.07151266473417761</v>
       </c>
       <c r="F24" s="2">
-        <v>24.71740031789212</v>
+        <v>24.91491286698097</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -19058,13 +19058,13 @@
         <v>1.22750081</v>
       </c>
       <c r="D25" s="2">
-        <v>1.051201536187905</v>
+        <v>1.049842551431339</v>
       </c>
       <c r="E25" s="2">
-        <v>0.1762992738120945</v>
+        <v>0.1776582585686615</v>
       </c>
       <c r="F25" s="2">
-        <v>14.36245682087123</v>
+        <v>14.47316833694484</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -19078,13 +19078,13 @@
         <v>13.71930632</v>
       </c>
       <c r="D26" s="2">
-        <v>13.28051319904985</v>
+        <v>13.28071169196172</v>
       </c>
       <c r="E26" s="2">
-        <v>0.4387931209501481</v>
+        <v>0.4385946280382793</v>
       </c>
       <c r="F26" s="2">
-        <v>3.198362298467493</v>
+        <v>3.196915483976739</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -19098,13 +19098,13 @@
         <v>14.40735818</v>
       </c>
       <c r="D27" s="2">
-        <v>13.10644768615998</v>
+        <v>13.10574836569263</v>
       </c>
       <c r="E27" s="2">
-        <v>1.300910493840021</v>
+        <v>1.301609814307373</v>
       </c>
       <c r="F27" s="2">
-        <v>9.029486721902416</v>
+        <v>9.034340633761996</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -19118,13 +19118,13 @@
         <v>24.46022683</v>
       </c>
       <c r="D28" s="2">
-        <v>23.01187337835453</v>
+        <v>23.00100819624262</v>
       </c>
       <c r="E28" s="2">
-        <v>1.448353451645474</v>
+        <v>1.459218633757381</v>
       </c>
       <c r="F28" s="2">
-        <v>5.921259282310073</v>
+        <v>5.965679075255659</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -19138,13 +19138,13 @@
         <v>22.88249949</v>
       </c>
       <c r="D29" s="2">
-        <v>22.92332833120684</v>
+        <v>22.91238805086232</v>
       </c>
       <c r="E29" s="2">
-        <v>0.04082884120684227</v>
+        <v>0.02988856086231451</v>
       </c>
       <c r="F29" s="2">
-        <v>0.1784282404318859</v>
+        <v>0.1306175528393489</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -19178,13 +19178,13 @@
         <v>0.559917918</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1162013121555756</v>
+        <v>0.1162998666592108</v>
       </c>
       <c r="E31" s="2">
-        <v>0.4437166058444245</v>
+        <v>0.4436180513407892</v>
       </c>
       <c r="F31" s="2">
-        <v>79.24672377504169</v>
+        <v>79.22912217658111</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -19238,13 +19238,13 @@
         <v>0.386</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4826573299806844</v>
+        <v>0.4830666889861874</v>
       </c>
       <c r="E34" s="2">
-        <v>0.09665732998068444</v>
+        <v>0.09706668898618742</v>
       </c>
       <c r="F34" s="2">
-        <v>25.04075906235348</v>
+        <v>25.14681061818327</v>
       </c>
     </row>
   </sheetData>
@@ -19471,13 +19471,13 @@
         <v>0.047136123</v>
       </c>
       <c r="D12" s="2">
-        <v>3.103136313322853</v>
+        <v>-3.103136313322853</v>
       </c>
       <c r="E12" s="2">
-        <v>3.056000190322853</v>
+        <v>3.150272436322853</v>
       </c>
       <c r="F12" s="2">
-        <v>6483.350763326149</v>
+        <v>6683.350763326149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -19691,7 +19691,7 @@
         <v>0.527067562</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.527067562</v>
@@ -20147,13 +20147,13 @@
         <v>0.033061682</v>
       </c>
       <c r="D12" s="2">
-        <v>2.599054493358246</v>
+        <v>-2.599054493358246</v>
       </c>
       <c r="E12" s="2">
-        <v>2.565992811358246</v>
+        <v>2.632116175358246</v>
       </c>
       <c r="F12" s="2">
-        <v>7761.228879275548</v>
+        <v>7961.228879275548</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -20367,13 +20367,13 @@
         <v>0.27351028</v>
       </c>
       <c r="D23" s="2">
-        <v>11.08732287276768</v>
+        <v>-11.08732287276768</v>
       </c>
       <c r="E23" s="2">
-        <v>10.81381259276768</v>
+        <v>11.36083315276768</v>
       </c>
       <c r="F23" s="2">
-        <v>3953.713400742262</v>
+        <v>4153.713400742262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -20683,13 +20683,13 @@
         <v>-31.06065037</v>
       </c>
       <c r="D5" s="2">
-        <v>-30.49943613119515</v>
+        <v>-28.52927768786583</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5612142388048476</v>
+        <v>2.531372682134172</v>
       </c>
       <c r="F5" s="2">
-        <v>1.806833508376559</v>
+        <v>8.149773594499825</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -20703,13 +20703,13 @@
         <v>27.13509385</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8264273110402345</v>
+        <v>0.9874010477577529</v>
       </c>
       <c r="E6" s="2">
-        <v>26.30866653895977</v>
+        <v>26.14769280224225</v>
       </c>
       <c r="F6" s="2">
-        <v>96.95439670999983</v>
+        <v>96.36116590119053</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -20740,13 +20740,13 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="D8" s="2">
-        <v>0.361009855898126</v>
+        <v>0.4313283276129787</v>
       </c>
       <c r="E8" s="2">
-        <v>0.4198282061018741</v>
+        <v>0.3495097343870214</v>
       </c>
       <c r="F8" s="2">
-        <v>53.76636034193144</v>
+        <v>44.76084752987123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20760,13 +20760,13 @@
         <v>0.002913575</v>
       </c>
       <c r="D9" s="2">
-        <v>0.488177509648173</v>
+        <v>0.5832660393466949</v>
       </c>
       <c r="E9" s="2">
-        <v>0.485263934648173</v>
+        <v>0.5803524643466949</v>
       </c>
       <c r="F9" s="2">
-        <v>16655.27520822952</v>
+        <v>19918.91282519568</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20780,13 +20780,13 @@
         <v>-0.7808380620000001</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.488177509648173</v>
+        <v>-0.5832660393466949</v>
       </c>
       <c r="E10" s="2">
-        <v>0.292660552351827</v>
+        <v>0.1975720226533052</v>
       </c>
       <c r="F10" s="2">
-        <v>37.48031334464162</v>
+        <v>25.30256044989072</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -20820,7 +20820,7 @@
         <v>0.002913575</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.002913575</v>
@@ -20840,13 +20840,13 @@
         <v>30.42160629</v>
       </c>
       <c r="D13" s="2">
-        <v>30.75272493331532</v>
+        <v>28.83190276481779</v>
       </c>
       <c r="E13" s="2">
-        <v>0.331118643315321</v>
+        <v>1.589703525182205</v>
       </c>
       <c r="F13" s="2">
-        <v>1.088432478413095</v>
+        <v>5.22557392278383</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20860,13 +20860,13 @@
         <v>-16.34127019</v>
       </c>
       <c r="D14" s="2">
-        <v>-15.43724931391282</v>
+        <v>-15.17235774984704</v>
       </c>
       <c r="E14" s="2">
-        <v>0.9040208760871753</v>
+        <v>1.16891244015296</v>
       </c>
       <c r="F14" s="2">
-        <v>5.532133460717079</v>
+        <v>7.153130855570048</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -20880,13 +20880,13 @@
         <v>30.42160629</v>
       </c>
       <c r="D15" s="2">
-        <v>31.23173392677231</v>
+        <v>30.57620267594916</v>
       </c>
       <c r="E15" s="2">
-        <v>0.8101276367723109</v>
+        <v>0.1545963859491586</v>
       </c>
       <c r="F15" s="2">
-        <v>2.663000858829111</v>
+        <v>0.5081795631546797</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -20900,13 +20900,13 @@
         <v>16.34127019</v>
       </c>
       <c r="D16" s="2">
-        <v>14.97578696619859</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1.365483223801411</v>
+        <v>16.34127019</v>
       </c>
       <c r="F16" s="2">
-        <v>8.356040919248828</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -20920,13 +20920,13 @@
         <v>-0.202979048</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1799711335382903</v>
+        <v>-0.2150263954831977</v>
       </c>
       <c r="E17" s="2">
-        <v>0.02300791446170969</v>
+        <v>0.01204734748319769</v>
       </c>
       <c r="F17" s="2">
-        <v>11.33511792887593</v>
+        <v>5.935266522285438</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -20940,13 +20940,13 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.488177509648173</v>
+        <v>0.5832660393466947</v>
       </c>
       <c r="E18" s="2">
-        <v>0.2926605523518271</v>
+        <v>0.1975720226533053</v>
       </c>
       <c r="F18" s="2">
-        <v>37.48031334464162</v>
+        <v>25.30256044989074</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -20960,13 +20960,13 @@
         <v>-30.42160629</v>
       </c>
       <c r="D19" s="2">
-        <v>-31.23173392677231</v>
+        <v>-30.57620267594916</v>
       </c>
       <c r="E19" s="2">
-        <v>0.8101276367723109</v>
+        <v>0.1545963859491586</v>
       </c>
       <c r="F19" s="2">
-        <v>2.663000858829111</v>
+        <v>0.5081795631546797</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -20980,13 +20980,13 @@
         <v>-30.42160629</v>
       </c>
       <c r="D20" s="2">
-        <v>-30.75272493331532</v>
+        <v>-28.83190276481779</v>
       </c>
       <c r="E20" s="2">
-        <v>0.331118643315321</v>
+        <v>1.589703525182205</v>
       </c>
       <c r="F20" s="2">
-        <v>1.088432478413095</v>
+        <v>5.22557392278383</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21000,13 +21000,13 @@
         <v>1.628688346</v>
       </c>
       <c r="D21" s="2">
-        <v>1.41771119502959</v>
+        <v>1.107862670520978</v>
       </c>
       <c r="E21" s="2">
-        <v>0.2109771509704097</v>
+        <v>0.5208256754790217</v>
       </c>
       <c r="F21" s="2">
-        <v>12.95380736827657</v>
+        <v>31.97822817104026</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21020,13 +21020,13 @@
         <v>-0.534155391</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.4658668222144309</v>
+        <v>-0.3612782401044904</v>
       </c>
       <c r="E22" s="2">
-        <v>0.06828856878556905</v>
+        <v>0.1728771508955095</v>
       </c>
       <c r="F22" s="2">
-        <v>12.78440130646721</v>
+        <v>32.364580383971</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21040,13 +21040,13 @@
         <v>0.534155391</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>-14.8163418996445</v>
       </c>
       <c r="E23" s="2">
-        <v>0.534155391</v>
+        <v>15.3504972906445</v>
       </c>
       <c r="F23" s="2">
-        <v>100</v>
+        <v>2873.788704426743</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21060,13 +21060,13 @@
         <v>0.415670013</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3392224211543484</v>
+        <v>0.2099657016285068</v>
       </c>
       <c r="E24" s="2">
-        <v>0.07644759184565164</v>
+        <v>0.2057043113714932</v>
       </c>
       <c r="F24" s="2">
-        <v>18.39141373078833</v>
+        <v>49.4874070628456</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21080,13 +21080,13 @@
         <v>1.628688346</v>
       </c>
       <c r="D25" s="2">
-        <v>1.41771119502959</v>
+        <v>1.107862670520978</v>
       </c>
       <c r="E25" s="2">
-        <v>0.2109771509704097</v>
+        <v>0.5208256754790217</v>
       </c>
       <c r="F25" s="2">
-        <v>12.95380736827657</v>
+        <v>31.97822817104026</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21100,13 +21100,13 @@
         <v>15.39047359</v>
       </c>
       <c r="D26" s="2">
-        <v>15.0238922383218</v>
+        <v>15.06914862223133</v>
       </c>
       <c r="E26" s="2">
-        <v>0.3665813516782013</v>
+        <v>0.3213249677686658</v>
       </c>
       <c r="F26" s="2">
-        <v>2.38187180878169</v>
+        <v>2.087817284436572</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21120,13 +21120,13 @@
         <v>16.34127019</v>
       </c>
       <c r="D27" s="2">
-        <v>14.97578696619859</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>1.365483223801411</v>
+        <v>16.34127019</v>
       </c>
       <c r="F27" s="2">
-        <v>8.356040919248828</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21140,13 +21140,13 @@
         <v>27.13472592</v>
       </c>
       <c r="D28" s="2">
-        <v>27.89600626818169</v>
+        <v>25.41874474665938</v>
       </c>
       <c r="E28" s="2">
-        <v>0.761280348181689</v>
+        <v>1.715981173340623</v>
       </c>
       <c r="F28" s="2">
-        <v>2.805557536958859</v>
+        <v>6.323930370256059</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21160,13 +21160,13 @@
         <v>25.29636408</v>
       </c>
       <c r="D29" s="2">
-        <v>26.17683849890329</v>
+        <v>25.31371722403355</v>
       </c>
       <c r="E29" s="2">
-        <v>0.8804744189032938</v>
+        <v>0.01735314403354948</v>
       </c>
       <c r="F29" s="2">
-        <v>3.480636253173716</v>
+        <v>0.06859936067756613</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21200,13 +21200,13 @@
         <v>0.770065103</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1153615167372467</v>
+        <v>0.1378319435667046</v>
       </c>
       <c r="E31" s="2">
-        <v>0.6547035862627533</v>
+        <v>0.6322331594332954</v>
       </c>
       <c r="F31" s="2">
-        <v>85.01925145188059</v>
+        <v>82.1012609155067</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -21260,13 +21260,13 @@
         <v>0.423</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4791691300040961</v>
+        <v>0.5725029832613808</v>
       </c>
       <c r="E34" s="2">
-        <v>0.05616913000409607</v>
+        <v>0.1495029832613808</v>
       </c>
       <c r="F34" s="2">
-        <v>13.27875413808418</v>
+        <v>35.34349486084653</v>
       </c>
     </row>
   </sheetData>
@@ -21356,13 +21356,13 @@
         <v>-20.82975148</v>
       </c>
       <c r="D5" s="2">
-        <v>-19.1959005896647</v>
+        <v>-18.3592042075867</v>
       </c>
       <c r="E5" s="2">
-        <v>1.633850890335303</v>
+        <v>2.470547272413299</v>
       </c>
       <c r="F5" s="2">
-        <v>7.843832855634739</v>
+        <v>11.86066609957124</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21376,13 +21376,13 @@
         <v>16.87636761</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7404241701838445</v>
+        <v>0.806857971685528</v>
       </c>
       <c r="E6" s="2">
-        <v>16.13594343981616</v>
+        <v>16.06950963831447</v>
       </c>
       <c r="F6" s="2">
-        <v>95.6126567796194</v>
+        <v>95.21900689572898</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21413,13 +21413,13 @@
         <v>1.239645202</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3925554173000242</v>
+        <v>0.4277770506846355</v>
       </c>
       <c r="E8" s="2">
-        <v>0.8470897846999756</v>
+        <v>0.8118681513153645</v>
       </c>
       <c r="F8" s="2">
-        <v>68.33324432937027</v>
+        <v>65.49197705968812</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21433,13 +21433,13 @@
         <v>0.469873398</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4373747365980585</v>
+        <v>0.476617737573826</v>
       </c>
       <c r="E9" s="2">
-        <v>0.03249866140194152</v>
+        <v>0.00674433957382603</v>
       </c>
       <c r="F9" s="2">
-        <v>6.916471870991411</v>
+        <v>1.435352501872436</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21453,13 +21453,13 @@
         <v>-1.239645202</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.4373747365980585</v>
+        <v>-0.476617737573826</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8022704654019415</v>
+        <v>0.7630274644261739</v>
       </c>
       <c r="F10" s="2">
-        <v>64.71774860319603</v>
+        <v>61.55208467673914</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21493,7 +21493,7 @@
         <v>0.469873398</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.469873398</v>
@@ -21513,13 +21513,13 @@
         <v>20.73011097</v>
       </c>
       <c r="D13" s="2">
-        <v>19.56105955408806</v>
+        <v>18.75712668667631</v>
       </c>
       <c r="E13" s="2">
-        <v>1.169051415911937</v>
+        <v>1.97298428332369</v>
       </c>
       <c r="F13" s="2">
-        <v>5.639388122927822</v>
+        <v>9.517480568140394</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21533,13 +21533,13 @@
         <v>-11.15387621</v>
       </c>
       <c r="D14" s="2">
-        <v>-10.51909658897819</v>
+        <v>-10.40454795569129</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6347796210218117</v>
+        <v>0.749328254308713</v>
       </c>
       <c r="F14" s="2">
-        <v>5.691112300965834</v>
+        <v>6.718097280270182</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21553,13 +21553,13 @@
         <v>20.73011097</v>
       </c>
       <c r="D15" s="2">
-        <v>21.15317306408234</v>
+        <v>20.87120635064348</v>
       </c>
       <c r="E15" s="2">
-        <v>0.4230620940823435</v>
+        <v>0.1410953806434847</v>
       </c>
       <c r="F15" s="2">
-        <v>2.040809596700116</v>
+        <v>0.6806301271019425</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21593,13 +21593,13 @@
         <v>-0.204165364</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1612422235167127</v>
+        <v>-0.1757095171332917</v>
       </c>
       <c r="E17" s="2">
-        <v>0.04292314048328724</v>
+        <v>0.0284558468667083</v>
       </c>
       <c r="F17" s="2">
-        <v>21.02371315209334</v>
+        <v>13.93764657687398</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -21633,13 +21633,13 @@
         <v>-20.73011097</v>
       </c>
       <c r="D19" s="2">
-        <v>-21.15317306408234</v>
+        <v>-20.87120635064348</v>
       </c>
       <c r="E19" s="2">
-        <v>0.4230620940823435</v>
+        <v>0.1410953806434847</v>
       </c>
       <c r="F19" s="2">
-        <v>2.040809596700116</v>
+        <v>0.6806301271019425</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -21653,13 +21653,13 @@
         <v>-20.73011097</v>
       </c>
       <c r="D20" s="2">
-        <v>-19.56105955408806</v>
+        <v>-18.75712668667631</v>
       </c>
       <c r="E20" s="2">
-        <v>1.169051415911937</v>
+        <v>1.97298428332369</v>
       </c>
       <c r="F20" s="2">
-        <v>5.639388122927822</v>
+        <v>9.517480568140394</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21673,13 +21673,13 @@
         <v>1.351008128</v>
       </c>
       <c r="D21" s="2">
-        <v>0.7931664664548386</v>
+        <v>0.6747748178514517</v>
       </c>
       <c r="E21" s="2">
-        <v>0.5578416615451613</v>
+        <v>0.6762333101485483</v>
       </c>
       <c r="F21" s="2">
-        <v>41.29077020217316</v>
+        <v>50.05397792459087</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21693,13 +21693,13 @@
         <v>-0.441544233</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.2814210220925215</v>
+        <v>-0.2434853359470459</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1601232109074785</v>
+        <v>0.1980588970529541</v>
       </c>
       <c r="F22" s="2">
-        <v>36.2643646865338</v>
+        <v>44.85595830507746</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21713,13 +21713,13 @@
         <v>0.441544233</v>
       </c>
       <c r="D23" s="2">
-        <v>10.24162168450949</v>
+        <v>-10.1653627987365</v>
       </c>
       <c r="E23" s="2">
-        <v>9.800077451509488</v>
+        <v>10.6069070317365</v>
       </c>
       <c r="F23" s="2">
-        <v>2219.500724746073</v>
+        <v>2402.229774278697</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21733,13 +21733,13 @@
         <v>0.326273836</v>
       </c>
       <c r="D24" s="2">
-        <v>0.09884153988083888</v>
+        <v>0.04452409640223998</v>
       </c>
       <c r="E24" s="2">
-        <v>0.2274322961191611</v>
+        <v>0.28174973959776</v>
       </c>
       <c r="F24" s="2">
-        <v>69.70595586437433</v>
+        <v>86.35376438758026</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21753,13 +21753,13 @@
         <v>1.351008128</v>
       </c>
       <c r="D25" s="2">
-        <v>0.7931664664548386</v>
+        <v>0.6747748178514517</v>
       </c>
       <c r="E25" s="2">
-        <v>0.5578416615451613</v>
+        <v>0.6762333101485483</v>
       </c>
       <c r="F25" s="2">
-        <v>41.29077020217316</v>
+        <v>50.05397792459087</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21773,13 +21773,13 @@
         <v>10.38605814</v>
       </c>
       <c r="D26" s="2">
-        <v>10.48980012092067</v>
+        <v>10.49899469113163</v>
       </c>
       <c r="E26" s="2">
-        <v>0.1037419809206668</v>
+        <v>0.1129365511316269</v>
       </c>
       <c r="F26" s="2">
-        <v>0.9988580799593596</v>
+        <v>1.087386086321552</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21813,13 +21813,13 @@
         <v>16.87700748</v>
       </c>
       <c r="D28" s="2">
-        <v>16.86339975117324</v>
+        <v>15.81742211660942</v>
       </c>
       <c r="E28" s="2">
-        <v>0.01360772882675931</v>
+        <v>1.059585363390578</v>
       </c>
       <c r="F28" s="2">
-        <v>0.08062880130191963</v>
+        <v>6.278277500595018</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21833,13 +21833,13 @@
         <v>15.72084501</v>
       </c>
       <c r="D29" s="2">
-        <v>14.15623994545477</v>
+        <v>12.48824976829611</v>
       </c>
       <c r="E29" s="2">
-        <v>1.564605064545228</v>
+        <v>3.232595241703887</v>
       </c>
       <c r="F29" s="2">
-        <v>9.952423445113705</v>
+        <v>20.56247765083645</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21873,13 +21873,13 @@
         <v>0.570021808</v>
       </c>
       <c r="D31" s="2">
-        <v>0.103356283317659</v>
+        <v>0.1126298201447621</v>
       </c>
       <c r="E31" s="2">
-        <v>0.466665524682341</v>
+        <v>0.4573919878552379</v>
       </c>
       <c r="F31" s="2">
-        <v>81.86801243968213</v>
+        <v>80.24113839785545</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -21893,13 +21893,13 @@
         <v>2.172602845</v>
       </c>
       <c r="D32" s="2">
-        <v>1.304829908508803</v>
+        <v>1.421904437712529</v>
       </c>
       <c r="E32" s="2">
-        <v>0.8677729364911972</v>
+        <v>0.7506984072874707</v>
       </c>
       <c r="F32" s="2">
-        <v>39.94162755002731</v>
+        <v>34.55295149848111</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -21933,13 +21933,13 @@
         <v>0.411</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4293038246938148</v>
+        <v>0.467822671352401</v>
       </c>
       <c r="E34" s="2">
-        <v>0.01830382469381481</v>
+        <v>0.05682267135240099</v>
       </c>
       <c r="F34" s="2">
-        <v>4.453485326962241</v>
+        <v>13.82546748233601</v>
       </c>
     </row>
   </sheetData>
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -22383,13 +22383,13 @@
         <v>0.227770042</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.1053522907015345</v>
+        <v>0.1053522907015345</v>
       </c>
       <c r="E23" s="2">
-        <v>0.3331223327015345</v>
+        <v>0.1224177512984655</v>
       </c>
       <c r="F23" s="2">
-        <v>146.2537960552048</v>
+        <v>53.74620394479513</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -22839,7 +22839,7 @@
         <v>0.343324251</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.343324251</v>
@@ -23059,7 +23059,7 @@
         <v>0.505177112</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.505177112</v>
@@ -23515,13 +23515,13 @@
         <v>0.213537676</v>
       </c>
       <c r="D12" s="2">
-        <v>2.75837995734094</v>
+        <v>-2.75837995734094</v>
       </c>
       <c r="E12" s="2">
-        <v>2.54484228134094</v>
+        <v>2.971917633340941</v>
       </c>
       <c r="F12" s="2">
-        <v>1191.753291040285</v>
+        <v>1391.753291040285</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -23735,13 +23735,13 @@
         <v>0.594636015</v>
       </c>
       <c r="D23" s="2">
-        <v>11.96125930750323</v>
+        <v>-11.96125930750323</v>
       </c>
       <c r="E23" s="2">
-        <v>11.36662329250323</v>
+        <v>12.55589532250323</v>
       </c>
       <c r="F23" s="2">
-        <v>1911.526211964007</v>
+        <v>2111.526211964008</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -24188,7 +24188,7 @@
         <v>0.058178487</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.058178487</v>
@@ -24408,13 +24408,13 @@
         <v>-0.409290762</v>
       </c>
       <c r="D23" s="2">
-        <v>9.712273039693098</v>
+        <v>-9.712273039693098</v>
       </c>
       <c r="E23" s="2">
-        <v>10.1215638016931</v>
+        <v>9.302982277693099</v>
       </c>
       <c r="F23" s="2">
-        <v>2472.951930855722</v>
+        <v>2272.951930855722</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -24724,13 +24724,13 @@
         <v>-23.16295957</v>
       </c>
       <c r="D5" s="2">
-        <v>-22.77665172106259</v>
+        <v>-21.73972622457345</v>
       </c>
       <c r="E5" s="2">
-        <v>0.3863078489374097</v>
+        <v>1.423233345426549</v>
       </c>
       <c r="F5" s="2">
-        <v>1.667782770893166</v>
+        <v>6.144436513500978</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -24744,13 +24744,13 @@
         <v>20.49176794</v>
       </c>
       <c r="D6" s="2">
-        <v>0.6371429597666123</v>
+        <v>0.7218659790916013</v>
       </c>
       <c r="E6" s="2">
-        <v>19.85462498023339</v>
+        <v>19.7699019609084</v>
       </c>
       <c r="F6" s="2">
-        <v>96.89073699432781</v>
+        <v>96.47728794701742</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24781,13 +24781,13 @@
         <v>0.709791332</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="E8" s="2">
-        <v>0.4314669288503419</v>
+        <v>0.3944572068951591</v>
       </c>
       <c r="F8" s="2">
-        <v>60.78785544401969</v>
+        <v>55.57368611190071</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -24801,10 +24801,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3763656636628119</v>
+        <v>0.426412258240969</v>
       </c>
       <c r="E9" s="2">
-        <v>0.3763656636628119</v>
+        <v>0.426412258240969</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>188</v>
@@ -24821,13 +24821,13 @@
         <v>-0.709791332</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.3763656636628119</v>
+        <v>-0.426412258240969</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3334256683371881</v>
+        <v>0.283379073759031</v>
       </c>
       <c r="F10" s="2">
-        <v>46.97516767324908</v>
+        <v>39.92427928931527</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -24878,13 +24878,13 @@
         <v>23.33605442</v>
       </c>
       <c r="D13" s="2">
-        <v>22.971927427592</v>
+        <v>21.96096839154065</v>
       </c>
       <c r="E13" s="2">
-        <v>0.3641269924079999</v>
+        <v>1.375086028459354</v>
       </c>
       <c r="F13" s="2">
-        <v>1.560362286847975</v>
+        <v>5.892538660180899</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -24898,13 +24898,13 @@
         <v>-12.4105939</v>
       </c>
       <c r="D14" s="2">
-        <v>-11.59661495030968</v>
+        <v>-11.45719833764348</v>
       </c>
       <c r="E14" s="2">
-        <v>0.8139789496903198</v>
+        <v>0.9533955623565245</v>
       </c>
       <c r="F14" s="2">
-        <v>6.558742927607354</v>
+        <v>7.682110703473461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -24918,13 +24918,13 @@
         <v>23.33605442</v>
       </c>
       <c r="D15" s="2">
-        <v>23.45044144835737</v>
+        <v>23.10542500055569</v>
       </c>
       <c r="E15" s="2">
-        <v>0.1143870283573669</v>
+        <v>0.2306294194443055</v>
       </c>
       <c r="F15" s="2">
-        <v>0.4901729585414933</v>
+        <v>0.9882965444520312</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -24938,13 +24938,13 @@
         <v>12.4105939</v>
       </c>
       <c r="D16" s="2">
-        <v>11.60001062695514</v>
+        <v>11.46104554871092</v>
       </c>
       <c r="E16" s="2">
-        <v>0.8105832730448572</v>
+        <v>0.949548351289085</v>
       </c>
       <c r="F16" s="2">
-        <v>6.531381814409842</v>
+        <v>7.651111292015485</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -24958,13 +24958,13 @@
         <v>-0.214064053</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1387506670739599</v>
+        <v>-0.157200804939825</v>
       </c>
       <c r="E17" s="2">
-        <v>0.07531338592604012</v>
+        <v>0.05686324806017504</v>
       </c>
       <c r="F17" s="2">
-        <v>35.18264036888067</v>
+        <v>26.56366039195522</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -24978,10 +24978,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="E18" s="2">
-        <v>0.2783244031496581</v>
+        <v>0.3153341251048409</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>188</v>
@@ -24998,13 +24998,13 @@
         <v>0.709791332</v>
       </c>
       <c r="D19" s="2">
-        <v>-23.45044144835737</v>
+        <v>-23.10542500055569</v>
       </c>
       <c r="E19" s="2">
-        <v>24.16023278035737</v>
+        <v>23.81521633255569</v>
       </c>
       <c r="F19" s="2">
-        <v>3403.850074116905</v>
+        <v>3355.241922362006</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25018,13 +25018,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="D20" s="2">
-        <v>-22.971927427592</v>
+        <v>-21.96096839154065</v>
       </c>
       <c r="E20" s="2">
-        <v>0.3641269924079999</v>
+        <v>1.375086028459354</v>
       </c>
       <c r="F20" s="2">
-        <v>1.560362286847975</v>
+        <v>5.892538660180899</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -25038,13 +25038,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="D21" s="2">
-        <v>1.038391122384446</v>
+        <v>0.8753129515904732</v>
       </c>
       <c r="E21" s="2">
-        <v>24.37444554238445</v>
+        <v>24.21136737159047</v>
       </c>
       <c r="F21" s="2">
-        <v>104.4497287488947</v>
+        <v>103.7509037982029</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -25058,13 +25058,13 @@
         <v>0.936146144</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.3409621805331169</v>
+        <v>-0.2859155583699831</v>
       </c>
       <c r="E22" s="2">
-        <v>1.277108324533117</v>
+        <v>1.222061702369983</v>
       </c>
       <c r="F22" s="2">
-        <v>136.4218965936495</v>
+        <v>130.5417653218452</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25078,13 +25078,13 @@
         <v>-0.306244745</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.3409621805331169</v>
+        <v>0.2859155583699831</v>
       </c>
       <c r="E23" s="2">
-        <v>0.03471743553311696</v>
+        <v>0.5921603033699832</v>
       </c>
       <c r="F23" s="2">
-        <v>11.33650000528726</v>
+        <v>193.361784336898</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -25098,13 +25098,13 @@
         <v>0.306244745</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2433243272684122</v>
+        <v>0.1752944748863866</v>
       </c>
       <c r="E24" s="2">
-        <v>0.06292041773158774</v>
+        <v>0.1309502701136134</v>
       </c>
       <c r="F24" s="2">
-        <v>20.54579507367147</v>
+        <v>42.76000560062292</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -25118,13 +25118,13 @@
         <v>0.936146144</v>
       </c>
       <c r="D25" s="2">
-        <v>1.038391122384446</v>
+        <v>0.8753129515904732</v>
       </c>
       <c r="E25" s="2">
-        <v>0.1022449783844458</v>
+        <v>0.06083319240952678</v>
       </c>
       <c r="F25" s="2">
-        <v>10.92190349121876</v>
+        <v>6.498258076414913</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -25138,13 +25138,13 @@
         <v>11.88516395</v>
       </c>
       <c r="D26" s="2">
-        <v>11.31433854004419</v>
+        <v>11.33815768947026</v>
       </c>
       <c r="E26" s="2">
-        <v>0.570825409955809</v>
+        <v>0.5470062605297379</v>
       </c>
       <c r="F26" s="2">
-        <v>4.802840014300426</v>
+        <v>4.602429237248661</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25158,13 +25158,13 @@
         <v>12.4105939</v>
       </c>
       <c r="D27" s="2">
-        <v>11.60001062695514</v>
+        <v>11.46104554871092</v>
       </c>
       <c r="E27" s="2">
-        <v>0.8105832730448572</v>
+        <v>0.949548351289085</v>
       </c>
       <c r="F27" s="2">
-        <v>6.531381814409842</v>
+        <v>7.651111292015485</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25178,13 +25178,13 @@
         <v>20.49186441</v>
       </c>
       <c r="D28" s="2">
-        <v>20.76950966960098</v>
+        <v>19.46568781616825</v>
       </c>
       <c r="E28" s="2">
-        <v>0.2776452596009804</v>
+        <v>1.026176593831753</v>
       </c>
       <c r="F28" s="2">
-        <v>1.354904824889871</v>
+        <v>5.007726838808187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -25198,13 +25198,13 @@
         <v>19.34656322</v>
       </c>
       <c r="D29" s="2">
-        <v>19.33148632196133</v>
+        <v>17.23413273251056</v>
       </c>
       <c r="E29" s="2">
-        <v>0.01507689803867152</v>
+        <v>2.112430487489444</v>
       </c>
       <c r="F29" s="2">
-        <v>0.0779306270949736</v>
+        <v>10.9188927432117</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -25238,13 +25238,13 @@
         <v>0.428345233</v>
       </c>
       <c r="D31" s="2">
-        <v>0.08893919312107119</v>
+        <v>0.100765733557625</v>
       </c>
       <c r="E31" s="2">
-        <v>0.3394060398789288</v>
+        <v>0.327579499442375</v>
       </c>
       <c r="F31" s="2">
-        <v>79.23656287752566</v>
+        <v>76.4755795571968</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -25258,13 +25258,13 @@
         <v>1.412618456</v>
       </c>
       <c r="D32" s="2">
-        <v>1.002502846189689</v>
+        <v>1.135808985273761</v>
       </c>
       <c r="E32" s="2">
-        <v>0.4101156098103114</v>
+        <v>0.276809470726239</v>
       </c>
       <c r="F32" s="2">
-        <v>29.03229871225124</v>
+        <v>19.59548734129232</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -25298,13 +25298,13 @@
         <v>0.4</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3694205571876834</v>
+        <v>0.4185436378494004</v>
       </c>
       <c r="E34" s="2">
-        <v>0.03057944281231662</v>
+        <v>0.01854363784940033</v>
       </c>
       <c r="F34" s="2">
-        <v>7.644860703079154</v>
+        <v>4.635909462350082</v>
       </c>
     </row>
   </sheetData>
@@ -25394,13 +25394,13 @@
         <v>-13.40648379</v>
       </c>
       <c r="D5" s="2">
-        <v>-10.16116383309315</v>
+        <v>-10.14465260872262</v>
       </c>
       <c r="E5" s="2">
-        <v>3.245319956906851</v>
+        <v>3.26183118127738</v>
       </c>
       <c r="F5" s="2">
-        <v>24.20709268546284</v>
+        <v>24.33025118570169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -25454,13 +25454,13 @@
         <v>2.122313264</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2839626471451855</v>
+        <v>0.2845507644675455</v>
       </c>
       <c r="E8" s="2">
-        <v>1.838350616854815</v>
+        <v>1.837762499532455</v>
       </c>
       <c r="F8" s="2">
-        <v>86.62013511568077</v>
+        <v>86.59242396990713</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25474,13 +25474,13 @@
         <v>0.462652892</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3839900092798524</v>
+        <v>0.3847852940764306</v>
       </c>
       <c r="E9" s="2">
-        <v>0.07866288272014754</v>
+        <v>0.07786759792356934</v>
       </c>
       <c r="F9" s="2">
-        <v>17.00257019470821</v>
+        <v>16.83067355030591</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -25494,13 +25494,13 @@
         <v>-2.122313264</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.3839900092798524</v>
+        <v>-0.3847852940764306</v>
       </c>
       <c r="E10" s="2">
-        <v>1.738323254720148</v>
+        <v>1.73752796992357</v>
       </c>
       <c r="F10" s="2">
-        <v>81.90700610539781</v>
+        <v>81.86953356022418</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -25534,13 +25534,13 @@
         <v>0.769504809</v>
       </c>
       <c r="D12" s="2">
-        <v>10.67468060158711</v>
+        <v>-10.71446247373399</v>
       </c>
       <c r="E12" s="2">
-        <v>9.905175792587105</v>
+        <v>11.48396728273399</v>
       </c>
       <c r="F12" s="2">
-        <v>1287.214280760538</v>
+        <v>1492.384082389015</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -25554,13 +25554,13 @@
         <v>13.49958437</v>
       </c>
       <c r="D13" s="2">
-        <v>10.36039539856756</v>
+        <v>10.34429680429466</v>
       </c>
       <c r="E13" s="2">
-        <v>3.139188971432443</v>
+        <v>3.155287565705336</v>
       </c>
       <c r="F13" s="2">
-        <v>23.25396756961372</v>
+        <v>23.37322008755545</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -25574,13 +25574,13 @@
         <v>-7.543047144</v>
       </c>
       <c r="D14" s="2">
-        <v>-6.513224530244146</v>
+        <v>-6.510145257610891</v>
       </c>
       <c r="E14" s="2">
-        <v>1.029822613755853</v>
+        <v>1.032901886389109</v>
       </c>
       <c r="F14" s="2">
-        <v>13.65260741575783</v>
+        <v>13.69343007766714</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -25594,13 +25594,13 @@
         <v>13.49958437</v>
       </c>
       <c r="D15" s="2">
-        <v>12.93572893305046</v>
+        <v>12.92938249659837</v>
       </c>
       <c r="E15" s="2">
-        <v>0.5638554369495452</v>
+        <v>0.5702018734016328</v>
       </c>
       <c r="F15" s="2">
-        <v>4.17683553430427</v>
+        <v>4.223847622070402</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -25614,13 +25614,13 @@
         <v>7.543047144</v>
       </c>
       <c r="D16" s="2">
-        <v>6.516688995875557</v>
+        <v>6.513616898524934</v>
       </c>
       <c r="E16" s="2">
-        <v>1.026358148124443</v>
+        <v>1.029430245475066</v>
       </c>
       <c r="F16" s="2">
-        <v>13.60667815712705</v>
+        <v>13.64740569457941</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -25634,13 +25634,13 @@
         <v>-0.198551241</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1415614522825492</v>
+        <v>-0.1418546413448968</v>
       </c>
       <c r="E17" s="2">
-        <v>0.05698978871745075</v>
+        <v>0.05669659965510321</v>
       </c>
       <c r="F17" s="2">
-        <v>28.70281164218498</v>
+        <v>28.55514746196082</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -25654,10 +25654,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3839900092798525</v>
+        <v>0.3847852940764307</v>
       </c>
       <c r="E18" s="2">
-        <v>0.3839900092798525</v>
+        <v>0.3847852940764307</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>188</v>
@@ -25674,13 +25674,13 @@
         <v>2.122313264</v>
       </c>
       <c r="D19" s="2">
-        <v>-12.93572893305046</v>
+        <v>-12.92938249659837</v>
       </c>
       <c r="E19" s="2">
-        <v>15.05804219705046</v>
+        <v>15.05169576059837</v>
       </c>
       <c r="F19" s="2">
-        <v>709.5108178643723</v>
+        <v>709.2117839488925</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25694,13 +25694,13 @@
         <v>-13.49958437</v>
       </c>
       <c r="D20" s="2">
-        <v>-10.36039539856756</v>
+        <v>-10.34429680429466</v>
       </c>
       <c r="E20" s="2">
-        <v>3.139188971432443</v>
+        <v>3.155287565705336</v>
       </c>
       <c r="F20" s="2">
-        <v>23.25396756961372</v>
+        <v>23.37322008755545</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -25734,13 +25734,13 @@
         <v>0.306851918</v>
       </c>
       <c r="D22" s="2">
-        <v>0.005272889899717303</v>
+        <v>0.005283810624393148</v>
       </c>
       <c r="E22" s="2">
-        <v>0.3015790281002827</v>
+        <v>0.3015681073756069</v>
       </c>
       <c r="F22" s="2">
-        <v>98.28161742182191</v>
+        <v>98.27805846584504</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25754,13 +25754,13 @@
         <v>-0.09880061800000001</v>
       </c>
       <c r="D23" s="2">
-        <v>0.005272889899717303</v>
+        <v>-0.005283810624393148</v>
       </c>
       <c r="E23" s="2">
-        <v>0.1040735078997173</v>
+        <v>0.09351680737560686</v>
       </c>
       <c r="F23" s="2">
-        <v>105.336899714248</v>
+        <v>94.65204698983447</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -25774,13 +25774,13 @@
         <v>0.09880061800000001</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.1048886726369228</v>
+        <v>-0.1051059084104165</v>
       </c>
       <c r="E24" s="2">
-        <v>0.2036892906369228</v>
+        <v>0.2039065264104165</v>
       </c>
       <c r="F24" s="2">
-        <v>206.1619600769327</v>
+        <v>206.3818329662842</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -25814,13 +25814,13 @@
         <v>7.3919962</v>
       </c>
       <c r="D26" s="2">
-        <v>6.931514254704109</v>
+        <v>6.929301305283399</v>
       </c>
       <c r="E26" s="2">
-        <v>0.460481945295891</v>
+        <v>0.4626948947166012</v>
       </c>
       <c r="F26" s="2">
-        <v>6.229466748046908</v>
+        <v>6.259403849755783</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25834,13 +25834,13 @@
         <v>7.543047144</v>
       </c>
       <c r="D27" s="2">
-        <v>6.516688995875557</v>
+        <v>6.513616898524934</v>
       </c>
       <c r="E27" s="2">
-        <v>1.026358148124443</v>
+        <v>1.029430245475066</v>
       </c>
       <c r="F27" s="2">
-        <v>13.60667815712705</v>
+        <v>13.64740569457941</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25854,13 +25854,13 @@
         <v>11.08259006</v>
       </c>
       <c r="D28" s="2">
-        <v>8.763411554594516</v>
+        <v>8.744005434238133</v>
       </c>
       <c r="E28" s="2">
-        <v>2.319178505405484</v>
+        <v>2.338584625761866</v>
       </c>
       <c r="F28" s="2">
-        <v>20.92632221213354</v>
+        <v>21.10142677028574</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -25874,13 +25874,13 @@
         <v>8.041365861999999</v>
       </c>
       <c r="D29" s="2">
-        <v>8.044217175732649</v>
+        <v>8.023321526113863</v>
       </c>
       <c r="E29" s="2">
-        <v>0.00285131373265024</v>
+        <v>0.01804433588613641</v>
       </c>
       <c r="F29" s="2">
-        <v>0.03545807741598116</v>
+        <v>0.2243939175980799</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -25914,13 +25914,13 @@
         <v>2.376191152</v>
       </c>
       <c r="D31" s="2">
-        <v>0.7407909901022819</v>
+        <v>0.7423252482799239</v>
       </c>
       <c r="E31" s="2">
-        <v>1.635400161897718</v>
+        <v>1.633865903720076</v>
       </c>
       <c r="F31" s="2">
-        <v>68.82443613684991</v>
+        <v>68.7598681757938</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -25974,13 +25974,13 @@
         <v>0.17</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3769042101294193</v>
+        <v>0.3776848194703873</v>
       </c>
       <c r="E34" s="2">
-        <v>0.2069042101294193</v>
+        <v>0.2076848194703873</v>
       </c>
       <c r="F34" s="2">
-        <v>121.7083588996584</v>
+        <v>122.1675408649337</v>
       </c>
     </row>
   </sheetData>
@@ -26210,13 +26210,13 @@
         <v>0.680740943</v>
       </c>
       <c r="D12" s="2">
-        <v>3.501225455267292</v>
+        <v>-3.501225455267292</v>
       </c>
       <c r="E12" s="2">
-        <v>2.820484512267292</v>
+        <v>4.181966398267292</v>
       </c>
       <c r="F12" s="2">
-        <v>414.3256757611084</v>
+        <v>614.3256757611085</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -26430,13 +26430,13 @@
         <v>-0.247269136</v>
       </c>
       <c r="D23" s="2">
-        <v>12.13709644585947</v>
+        <v>-12.13709644585947</v>
       </c>
       <c r="E23" s="2">
-        <v>12.38436558185947</v>
+        <v>11.88982730985947</v>
       </c>
       <c r="F23" s="2">
-        <v>5008.455880178862</v>
+        <v>4808.455880178862</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -26886,7 +26886,7 @@
         <v>0.9201430350000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.9201430350000001</v>
@@ -27106,13 +27106,13 @@
         <v>-0.326405473</v>
       </c>
       <c r="D23" s="2">
-        <v>13.34019783109357</v>
+        <v>-13.34019783109357</v>
       </c>
       <c r="E23" s="2">
-        <v>13.66660330409357</v>
+        <v>13.01379235809357</v>
       </c>
       <c r="F23" s="2">
-        <v>4187.001884032004</v>
+        <v>3987.001884032004</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -27562,7 +27562,7 @@
         <v>0.941713699</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.941713699</v>
@@ -27779,7 +27779,7 @@
         <v>-0.134530528</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.134530528</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>2.150924689481362</v>
+        <v>-2.150924689481362</v>
       </c>
       <c r="E12" s="2">
         <v>2.150924689481362</v>
@@ -28452,13 +28452,13 @@
         <v>-0.306244745</v>
       </c>
       <c r="D23" s="2">
-        <v>11.17512999034093</v>
+        <v>-11.17512999034093</v>
       </c>
       <c r="E23" s="2">
-        <v>11.48137473534093</v>
+        <v>10.86888524534093</v>
       </c>
       <c r="F23" s="2">
-        <v>3749.084652976146</v>
+        <v>3549.084652976146</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -28905,7 +28905,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>2.385274295223184</v>
+        <v>-2.385274295223184</v>
       </c>
       <c r="E12" s="2">
         <v>2.385274295223184</v>
@@ -29125,13 +29125,13 @@
         <v>-0.457097918</v>
       </c>
       <c r="D23" s="2">
-        <v>12.08630711825101</v>
+        <v>-12.08630711825101</v>
       </c>
       <c r="E23" s="2">
-        <v>12.54340503625101</v>
+        <v>11.629209200251</v>
       </c>
       <c r="F23" s="2">
-        <v>2744.139612609438</v>
+        <v>2544.139612609437</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -29581,7 +29581,7 @@
         <v>0.222241192</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.222241192</v>
@@ -29798,13 +29798,13 @@
         <v>-0.210228155</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.2365646007048451</v>
+        <v>0.2365646007048451</v>
       </c>
       <c r="E23" s="2">
-        <v>0.02633644570484514</v>
+        <v>0.4467927557048451</v>
       </c>
       <c r="F23" s="2">
-        <v>12.52755403045093</v>
+        <v>212.5275540304509</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -30254,13 +30254,13 @@
         <v>1.111853633</v>
       </c>
       <c r="D12" s="2">
-        <v>2.962672800934036</v>
+        <v>-2.962672800934036</v>
       </c>
       <c r="E12" s="2">
-        <v>1.850819167934036</v>
+        <v>4.074526433934036</v>
       </c>
       <c r="F12" s="2">
-        <v>166.4624832803002</v>
+        <v>366.4624832803003</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -30474,13 +30474,13 @@
         <v>-0.205394262</v>
       </c>
       <c r="D23" s="2">
-        <v>10.06687504354681</v>
+        <v>-10.06687504354681</v>
       </c>
       <c r="E23" s="2">
-        <v>10.27226930554681</v>
+        <v>9.861480781546813</v>
       </c>
       <c r="F23" s="2">
-        <v>5001.244536006958</v>
+        <v>4801.244536006957</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -30930,7 +30930,7 @@
         <v>1.055725766</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>1.055725766</v>
@@ -31150,13 +31150,13 @@
         <v>0.411916123</v>
       </c>
       <c r="D23" s="2">
-        <v>13.43517486174559</v>
+        <v>-13.43517486174559</v>
       </c>
       <c r="E23" s="2">
-        <v>13.02325873874559</v>
+        <v>13.84709098474559</v>
       </c>
       <c r="F23" s="2">
-        <v>3161.628790807392</v>
+        <v>3361.628790807391</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -31603,7 +31603,7 @@
         <v>0.046826242</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.046826242</v>
@@ -31823,13 +31823,13 @@
         <v>-0.354683877</v>
       </c>
       <c r="D23" s="2">
-        <v>13.25374319895617</v>
+        <v>-13.25374319895617</v>
       </c>
       <c r="E23" s="2">
-        <v>13.60842707595617</v>
+        <v>12.89905932195617</v>
       </c>
       <c r="F23" s="2">
-        <v>3836.776340401899</v>
+        <v>3636.776340401899</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -32279,7 +32279,7 @@
         <v>0.229507055</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.229507055</v>
@@ -32499,7 +32499,7 @@
         <v>-0.170005226</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.170005226</v>
@@ -32955,7 +32955,7 @@
         <v>3.521541776</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>3.521541776</v>
@@ -33175,13 +33175,13 @@
         <v>-0.023003539</v>
       </c>
       <c r="D23" s="2">
-        <v>0.004845897679141689</v>
+        <v>-0.004845897679141689</v>
       </c>
       <c r="E23" s="2">
-        <v>0.02784943667914169</v>
+        <v>0.01815764132085831</v>
       </c>
       <c r="F23" s="2">
-        <v>121.0658789464599</v>
+        <v>78.93412105354012</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -33631,7 +33631,7 @@
         <v>0.052519502</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.052519502</v>
@@ -33851,7 +33851,7 @@
         <v>0.03468269</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.03468269</v>
@@ -34307,13 +34307,13 @@
         <v>0.268459168</v>
       </c>
       <c r="D12" s="2">
-        <v>2.530564255046549</v>
+        <v>-2.530564255046549</v>
       </c>
       <c r="E12" s="2">
-        <v>2.262105087046549</v>
+        <v>2.799023423046549</v>
       </c>
       <c r="F12" s="2">
-        <v>842.6253809467772</v>
+        <v>1042.625380946777</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -34527,13 +34527,13 @@
         <v>0.376047766</v>
       </c>
       <c r="D23" s="2">
-        <v>11.04938285912582</v>
+        <v>-11.04938285912582</v>
       </c>
       <c r="E23" s="2">
-        <v>10.67333509312582</v>
+        <v>11.42543062512582</v>
       </c>
       <c r="F23" s="2">
-        <v>2838.292381485872</v>
+        <v>3038.292381485872</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -34983,7 +34983,7 @@
         <v>0.07662161100000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.07662161100000001</v>
@@ -35203,13 +35203,13 @@
         <v>0.532152835</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.2060370741340243</v>
+        <v>0.2060370741340243</v>
       </c>
       <c r="E23" s="2">
-        <v>0.7381899091340243</v>
+        <v>0.3261157608659757</v>
       </c>
       <c r="F23" s="2">
-        <v>138.7176503783963</v>
+        <v>61.28234962160366</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -35659,13 +35659,13 @@
         <v>0.101978606</v>
       </c>
       <c r="D12" s="2">
-        <v>2.465027467829429</v>
+        <v>-2.465027467829429</v>
       </c>
       <c r="E12" s="2">
-        <v>2.36304886182943</v>
+        <v>2.567006073829429</v>
       </c>
       <c r="F12" s="2">
-        <v>2317.200591886331</v>
+        <v>2517.200591886331</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -35879,13 +35879,13 @@
         <v>0.407914424</v>
       </c>
       <c r="D23" s="2">
-        <v>11.9075421844244</v>
+        <v>-11.9075421844244</v>
       </c>
       <c r="E23" s="2">
-        <v>11.4996277604244</v>
+        <v>12.31545660842439</v>
       </c>
       <c r="F23" s="2">
-        <v>2819.127513967095</v>
+        <v>3019.127513967095</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -36195,13 +36195,13 @@
         <v>-14.93827133</v>
       </c>
       <c r="D5" s="2">
-        <v>-13.71384265399803</v>
+        <v>-13.72251998572886</v>
       </c>
       <c r="E5" s="2">
-        <v>1.22442867600197</v>
+        <v>1.215751344271144</v>
       </c>
       <c r="F5" s="2">
-        <v>8.196588808391731</v>
+        <v>8.138500884165852</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -36215,13 +36215,13 @@
         <v>12.84216975</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5724032479193253</v>
+        <v>0.5716986722253814</v>
       </c>
       <c r="E6" s="2">
-        <v>12.26976650208067</v>
+        <v>12.27047107777462</v>
       </c>
       <c r="F6" s="2">
-        <v>95.54278397605415</v>
+        <v>95.54827039857979</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -36252,13 +36252,13 @@
         <v>0.609166852</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2500413733461238</v>
+        <v>0.2497335954381882</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3591254786538762</v>
+        <v>0.3594332565618118</v>
       </c>
       <c r="F8" s="2">
-        <v>58.95354901121183</v>
+        <v>59.00407341301162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -36272,10 +36272,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0.33812337558406</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="E9" s="2">
-        <v>0.33812337558406</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>188</v>
@@ -36292,13 +36292,13 @@
         <v>-0.609166852</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.33812337558406</v>
+        <v>-0.3377071768415533</v>
       </c>
       <c r="E10" s="2">
-        <v>0.27104347641594</v>
+        <v>0.2714596751584467</v>
       </c>
       <c r="F10" s="2">
-        <v>44.49412759838415</v>
+        <v>44.56245021658642</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -36332,7 +36332,7 @@
         <v>0.101358877</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.101358877</v>
@@ -36352,13 +36352,13 @@
         <v>15.06091557</v>
       </c>
       <c r="D13" s="2">
-        <v>13.88927651376808</v>
+        <v>13.89773790257068</v>
       </c>
       <c r="E13" s="2">
-        <v>1.171639056231916</v>
+        <v>1.163177667429325</v>
       </c>
       <c r="F13" s="2">
-        <v>7.779334867036345</v>
+        <v>7.723153761955026</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -36372,13 +36372,13 @@
         <v>-8.323591</v>
       </c>
       <c r="D14" s="2">
-        <v>-7.654180160304794</v>
+        <v>-7.655328774382537</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6694108396952068</v>
+        <v>0.6682622256174637</v>
       </c>
       <c r="F14" s="2">
-        <v>8.042332206077962</v>
+        <v>8.028532704423652</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -36392,13 +36392,13 @@
         <v>15.06091557</v>
       </c>
       <c r="D15" s="2">
-        <v>15.36511241530683</v>
+        <v>15.36797084387973</v>
       </c>
       <c r="E15" s="2">
-        <v>0.3041968453068318</v>
+        <v>0.3070552738797279</v>
       </c>
       <c r="F15" s="2">
-        <v>2.019776579272277</v>
+        <v>2.038755694848689</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -36412,13 +36412,13 @@
         <v>8.323591</v>
       </c>
       <c r="D16" s="2">
-        <v>7.525237928085939</v>
+        <v>7.525914201158632</v>
       </c>
       <c r="E16" s="2">
-        <v>0.798353071914061</v>
+        <v>0.7976767988413682</v>
       </c>
       <c r="F16" s="2">
-        <v>9.59145003537609</v>
+        <v>9.583325259991367</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -36452,13 +36452,13 @@
         <v>0.609166852</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3381233755840601</v>
+        <v>0.3377071768415533</v>
       </c>
       <c r="E18" s="2">
-        <v>0.2710434764159398</v>
+        <v>0.2714596751584467</v>
       </c>
       <c r="F18" s="2">
-        <v>44.49412759838414</v>
+        <v>44.56245021658643</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -36472,13 +36472,13 @@
         <v>-15.06091557</v>
       </c>
       <c r="D19" s="2">
-        <v>-15.36511241530683</v>
+        <v>-15.36797084387973</v>
       </c>
       <c r="E19" s="2">
-        <v>0.3041968453068318</v>
+        <v>0.3070552738797279</v>
       </c>
       <c r="F19" s="2">
-        <v>2.019776579272277</v>
+        <v>2.038755694848689</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -36492,13 +36492,13 @@
         <v>-15.06091557</v>
       </c>
       <c r="D20" s="2">
-        <v>-13.88927651376808</v>
+        <v>-13.89773790257068</v>
       </c>
       <c r="E20" s="2">
-        <v>1.171639056231916</v>
+        <v>1.163177667429325</v>
       </c>
       <c r="F20" s="2">
-        <v>7.779334867036345</v>
+        <v>7.723153761955026</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -36512,13 +36512,13 @@
         <v>0.889930942</v>
       </c>
       <c r="D21" s="2">
-        <v>0.4099077983086484</v>
+        <v>0.4112964106128751</v>
       </c>
       <c r="E21" s="2">
-        <v>0.4800231436913516</v>
+        <v>0.4786345313871249</v>
       </c>
       <c r="F21" s="2">
-        <v>53.93937001589856</v>
+        <v>53.78333405415236</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -36532,13 +36532,13 @@
         <v>-0.291913566</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.1319928762084825</v>
+        <v>-0.1324614621516713</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1599206897915175</v>
+        <v>0.1594521038483288</v>
       </c>
       <c r="F22" s="2">
-        <v>54.78357583131903</v>
+        <v>54.62305367758371</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -36552,7 +36552,7 @@
         <v>0.291913566</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.291913566</v>
@@ -36572,13 +36572,13 @@
         <v>0.23109824</v>
       </c>
       <c r="D24" s="2">
-        <v>0.04427594632345398</v>
+        <v>0.04485250373076184</v>
       </c>
       <c r="E24" s="2">
-        <v>0.186822293676546</v>
+        <v>0.1862457362692382</v>
       </c>
       <c r="F24" s="2">
-        <v>80.84107160510871</v>
+        <v>80.59158575558091</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -36592,13 +36592,13 @@
         <v>0.889930942</v>
       </c>
       <c r="D25" s="2">
-        <v>0.4099077983086484</v>
+        <v>0.4112964106128751</v>
       </c>
       <c r="E25" s="2">
-        <v>0.4800231436913516</v>
+        <v>0.4786345313871249</v>
       </c>
       <c r="F25" s="2">
-        <v>53.93937001589856</v>
+        <v>53.78333405415236</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -36612,13 +36612,13 @@
         <v>7.800579194</v>
       </c>
       <c r="D26" s="2">
-        <v>7.749234371456515</v>
+        <v>7.749003868511467</v>
       </c>
       <c r="E26" s="2">
-        <v>0.05134482254348516</v>
+        <v>0.05157532548853272</v>
       </c>
       <c r="F26" s="2">
-        <v>0.6582180792802955</v>
+        <v>0.6611730258209941</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -36632,13 +36632,13 @@
         <v>8.323591</v>
       </c>
       <c r="D27" s="2">
-        <v>7.525237928085939</v>
+        <v>7.525914201158632</v>
       </c>
       <c r="E27" s="2">
-        <v>0.798353071914061</v>
+        <v>0.7976767988413682</v>
       </c>
       <c r="F27" s="2">
-        <v>9.59145003537609</v>
+        <v>9.583325259991367</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -36652,13 +36652,13 @@
         <v>12.84134784</v>
       </c>
       <c r="D28" s="2">
-        <v>11.78599545536309</v>
+        <v>11.79704578948816</v>
       </c>
       <c r="E28" s="2">
-        <v>1.055352384636913</v>
+        <v>1.04430205051184</v>
       </c>
       <c r="F28" s="2">
-        <v>8.21839263125913</v>
+        <v>8.132339872134795</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -36672,13 +36672,13 @@
         <v>11.72674227</v>
       </c>
       <c r="D29" s="2">
-        <v>11.72511027075804</v>
+        <v>11.73623554893934</v>
       </c>
       <c r="E29" s="2">
-        <v>0.001631999241958226</v>
+        <v>0.009493278939336491</v>
       </c>
       <c r="F29" s="2">
-        <v>0.01391690210616547</v>
+        <v>0.08095410234795319</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -36712,13 +36712,13 @@
         <v>0.303758115</v>
       </c>
       <c r="D31" s="2">
-        <v>0.07990213535196783</v>
+        <v>0.07980378318036879</v>
       </c>
       <c r="E31" s="2">
-        <v>0.2238559796480322</v>
+        <v>0.2239543318196312</v>
       </c>
       <c r="F31" s="2">
-        <v>73.6954730075383</v>
+        <v>73.7278514582668</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -36732,13 +36732,13 @@
         <v>1.106345819</v>
       </c>
       <c r="D32" s="2">
-        <v>0.9006364815791557</v>
+        <v>0.8995278809967754</v>
       </c>
       <c r="E32" s="2">
-        <v>0.2057093374208443</v>
+        <v>0.2068179380032246</v>
       </c>
       <c r="F32" s="2">
-        <v>18.59358384042886</v>
+        <v>18.69378764319482</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -36772,13 +36772,13 @@
         <v>0.2097</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3318839571889085</v>
+        <v>0.3314754385959494</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1221839571889085</v>
+        <v>0.1217754385959494</v>
       </c>
       <c r="F34" s="2">
-        <v>58.26607400520196</v>
+        <v>58.07126304050998</v>
       </c>
     </row>
   </sheetData>
@@ -36868,13 +36868,13 @@
         <v>-27.55341866</v>
       </c>
       <c r="D5" s="2">
-        <v>-26.97122212281078</v>
+        <v>-26.97759418556285</v>
       </c>
       <c r="E5" s="2">
-        <v>0.582196537189219</v>
+        <v>0.5758244744371446</v>
       </c>
       <c r="F5" s="2">
-        <v>2.112973872220105</v>
+        <v>2.089847657536172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -36888,13 +36888,13 @@
         <v>24.21818063</v>
       </c>
       <c r="D6" s="2">
-        <v>1.559356264966055</v>
+        <v>1.551583367970254</v>
       </c>
       <c r="E6" s="2">
-        <v>22.65882436503394</v>
+        <v>22.66659726202975</v>
       </c>
       <c r="F6" s="2">
-        <v>93.56121630774187</v>
+        <v>93.5933116047196</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -36928,13 +36928,13 @@
         <v>0.7115849279999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3744984548968462</v>
+        <v>0.3739555048441694</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3370864731031538</v>
+        <v>0.3376294231558306</v>
       </c>
       <c r="F8" s="2">
-        <v>47.37122159832393</v>
+        <v>47.44752310940326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -36948,13 +36948,13 @@
         <v>0.066805982</v>
       </c>
       <c r="D9" s="2">
-        <v>1.208468260328756</v>
+        <v>1.201204082816602</v>
       </c>
       <c r="E9" s="2">
-        <v>1.141662278328756</v>
+        <v>1.134398100816602</v>
       </c>
       <c r="F9" s="2">
-        <v>1708.92223143843</v>
+        <v>1698.048687940253</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -36968,13 +36968,13 @@
         <v>-0.7115849279999999</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.208468260328756</v>
+        <v>-1.201204082816602</v>
       </c>
       <c r="E10" s="2">
-        <v>0.496883332328756</v>
+        <v>0.4896191548166018</v>
       </c>
       <c r="F10" s="2">
-        <v>69.82769206836771</v>
+        <v>68.80684729969461</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -36988,13 +36988,13 @@
         <v>-0.370469536</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.7020467439172684</v>
+        <v>-0.6955167792848123</v>
       </c>
       <c r="E11" s="2">
-        <v>0.3315772079172684</v>
+        <v>0.3250472432848123</v>
       </c>
       <c r="F11" s="2">
-        <v>89.50188225929281</v>
+        <v>87.73926374470162</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -37008,7 +37008,7 @@
         <v>0.107294456</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.107294456</v>
@@ -37028,13 +37028,13 @@
         <v>27.11310651</v>
       </c>
       <c r="D13" s="2">
-        <v>27.23397468617415</v>
+        <v>27.23996580872139</v>
       </c>
       <c r="E13" s="2">
-        <v>0.1208681761741524</v>
+        <v>0.1268592987213886</v>
       </c>
       <c r="F13" s="2">
-        <v>0.4457924293166963</v>
+        <v>0.467889205814906</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -37048,13 +37048,13 @@
         <v>-14.31166329</v>
       </c>
       <c r="D14" s="2">
-        <v>-13.62053300225674</v>
+        <v>-13.62306407858355</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6911302877432632</v>
+        <v>0.688599211416447</v>
       </c>
       <c r="F14" s="2">
-        <v>4.829140217588666</v>
+        <v>4.811454807615495</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -37068,13 +37068,13 @@
         <v>27.11310651</v>
       </c>
       <c r="D15" s="2">
-        <v>27.54008450068485</v>
+        <v>27.54563182343072</v>
       </c>
       <c r="E15" s="2">
-        <v>0.4269779906848505</v>
+        <v>0.4325253134307196</v>
       </c>
       <c r="F15" s="2">
-        <v>1.5748029113793</v>
+        <v>1.595262841870198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -37088,13 +37088,13 @@
         <v>14.31166329</v>
       </c>
       <c r="D16" s="2">
-        <v>13.62510204342835</v>
+        <v>13.62762649553252</v>
       </c>
       <c r="E16" s="2">
-        <v>0.6865612465716531</v>
+        <v>0.6840367944674792</v>
       </c>
       <c r="F16" s="2">
-        <v>4.797214919466241</v>
+        <v>4.779575794977212</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -37108,13 +37108,13 @@
         <v>-0.211552276</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.186695488599205</v>
+        <v>-0.1864248163867944</v>
       </c>
       <c r="E17" s="2">
-        <v>0.02485678740079503</v>
+        <v>0.02512745961320564</v>
       </c>
       <c r="F17" s="2">
-        <v>11.74971400487085</v>
+        <v>11.87765978618242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -37148,13 +37148,13 @@
         <v>-27.11310651</v>
       </c>
       <c r="D19" s="2">
-        <v>-27.54008450068485</v>
+        <v>-27.54563182343072</v>
       </c>
       <c r="E19" s="2">
-        <v>0.4269779906848505</v>
+        <v>0.4325253134307196</v>
       </c>
       <c r="F19" s="2">
-        <v>1.5748029113793</v>
+        <v>1.595262841870198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -37168,13 +37168,13 @@
         <v>-27.11310651</v>
       </c>
       <c r="D20" s="2">
-        <v>-27.23397468617415</v>
+        <v>-27.23996580872139</v>
       </c>
       <c r="E20" s="2">
-        <v>0.1208681761741524</v>
+        <v>0.1268592987213886</v>
       </c>
       <c r="F20" s="2">
-        <v>0.4457924293166963</v>
+        <v>0.467889205814906</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -37188,13 +37188,13 @@
         <v>1.256154901</v>
       </c>
       <c r="D21" s="2">
-        <v>1.255988762609247</v>
+        <v>1.256923889323411</v>
       </c>
       <c r="E21" s="2">
-        <v>0.000166138390753412</v>
+        <v>0.0007689883234107686</v>
       </c>
       <c r="F21" s="2">
-        <v>0.01322594774109089</v>
+        <v>0.06121763508613407</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37208,13 +37208,13 @@
         <v>-0.411970221</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.4117088755397539</v>
+        <v>-0.4120306664600952</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0002613454602460874</v>
+        <v>6.044546009520424e-05</v>
       </c>
       <c r="F22" s="2">
-        <v>0.0634379493769496</v>
+        <v>0.01467228867865288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -37228,13 +37228,13 @@
         <v>0.411970221</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.4117088755397539</v>
+        <v>0.4120306664600952</v>
       </c>
       <c r="E23" s="2">
-        <v>0.823679096539754</v>
+        <v>6.044546009520424e-05</v>
       </c>
       <c r="F23" s="2">
-        <v>199.9365620506231</v>
+        <v>0.01467228867865288</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -37248,13 +37248,13 @@
         <v>0.31277346</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2803325938580669</v>
+        <v>0.2808448548808261</v>
       </c>
       <c r="E24" s="2">
-        <v>0.03244086614193309</v>
+        <v>0.03192860511917395</v>
       </c>
       <c r="F24" s="2">
-        <v>10.37200091783142</v>
+        <v>10.2082207100225</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -37268,13 +37268,13 @@
         <v>1.256154901</v>
       </c>
       <c r="D25" s="2">
-        <v>1.255988762609247</v>
+        <v>1.256923889323411</v>
       </c>
       <c r="E25" s="2">
-        <v>0.000166138390753412</v>
+        <v>0.0007689883234107686</v>
       </c>
       <c r="F25" s="2">
-        <v>0.01322594774109089</v>
+        <v>0.06121763508613407</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -37288,13 +37288,13 @@
         <v>13.58691961</v>
       </c>
       <c r="D26" s="2">
-        <v>13.33486019335211</v>
+        <v>13.33596806207247</v>
       </c>
       <c r="E26" s="2">
-        <v>0.252059416647894</v>
+        <v>0.250951547927535</v>
       </c>
       <c r="F26" s="2">
-        <v>1.855162346455467</v>
+        <v>1.847008410521795</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -37308,13 +37308,13 @@
         <v>14.31166329</v>
       </c>
       <c r="D27" s="2">
-        <v>13.62510204342835</v>
+        <v>13.62762649553252</v>
       </c>
       <c r="E27" s="2">
-        <v>0.6865612465716531</v>
+        <v>0.6840367944674792</v>
       </c>
       <c r="F27" s="2">
-        <v>4.797214919466241</v>
+        <v>4.779575794977212</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -37328,13 +37328,13 @@
         <v>24.21926825</v>
       </c>
       <c r="D28" s="2">
-        <v>23.56846823534457</v>
+        <v>23.58528576375903</v>
       </c>
       <c r="E28" s="2">
-        <v>0.6508000146554274</v>
+        <v>0.6339824862409671</v>
       </c>
       <c r="F28" s="2">
-        <v>2.687116753229848</v>
+        <v>2.617678121802739</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -37348,13 +37348,13 @@
         <v>22.71962215</v>
       </c>
       <c r="D29" s="2">
-        <v>23.47727866483181</v>
+        <v>23.49422840041953</v>
       </c>
       <c r="E29" s="2">
-        <v>0.7576565148318117</v>
+        <v>0.7746062504195343</v>
       </c>
       <c r="F29" s="2">
-        <v>3.334811247430062</v>
+        <v>3.40941519760061</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37388,13 +37388,13 @@
         <v>0.487406232</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1196718290839324</v>
+        <v>0.1194983281654227</v>
       </c>
       <c r="E31" s="2">
-        <v>0.3677344029160676</v>
+        <v>0.3679079038345773</v>
       </c>
       <c r="F31" s="2">
-        <v>75.44720989863495</v>
+        <v>75.48280667748567</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -37408,13 +37408,13 @@
         <v>1.4708495</v>
       </c>
       <c r="D32" s="2">
-        <v>2.132832871800772</v>
+        <v>2.124228545062556</v>
       </c>
       <c r="E32" s="2">
-        <v>0.6619833718007717</v>
+        <v>0.6533790450625561</v>
       </c>
       <c r="F32" s="2">
-        <v>45.00687336133111</v>
+        <v>44.42188307250715</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -37448,13 +37448,13 @@
         <v>0.338</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4970725754131178</v>
+        <v>0.4963519166828193</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1590725754131178</v>
+        <v>0.1583519166828193</v>
       </c>
       <c r="F34" s="2">
-        <v>47.0628921340585</v>
+        <v>46.84967949195836</v>
       </c>
     </row>
   </sheetData>
